--- a/Párhuzamos Algoritmusok/Beadandó/Feladat 2/Diagram.xlsx
+++ b/Párhuzamos Algoritmusok/Beadandó/Feladat 2/Diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oravj\Desktop\ME_Git\Miskolci_Egyetem\Párhuzamos Algoritmusok\Beadandó\Feladat 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24653449-317C-4C6D-B61A-BDAB95286E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E988EEF4-0D52-4BB9-94A9-9546EE6DF82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{827A7A81-2A63-4251-9506-2AFF6AE42B2E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{827A7A81-2A63-4251-9506-2AFF6AE42B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -255,19 +255,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -340,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -350,33 +337,31 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -415,7 +400,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="4800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="12000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -428,15 +413,13 @@
                     </a:prstClr>
                   </a:outerShdw>
                 </a:effectLst>
-                <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="hu-HU" b="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="hu-HU"/>
               <a:t>QuickSort (OpenMP)</a:t>
             </a:r>
           </a:p>
@@ -455,7 +438,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="4800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="12000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -468,8 +451,8 @@
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
-              <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -513,49 +496,7 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -567,64 +508,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
                   <c:v>150000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
                   <c:v>200000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
                   <c:v>250000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>275000</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
                   <c:v>300000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>325000</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
                   <c:v>350000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>375000</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
                   <c:v>400000</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>425000</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
                   <c:v>450000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>475000</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
                   <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>550000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>650000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>700000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>750000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>850000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>900000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>950000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,64 +580,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E-3</c:v>
+                  <c:v>2.2500000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5E-3</c:v>
+                  <c:v>5.2500000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>1.3749999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2500000000000003E-3</c:v>
+                  <c:v>2.2250000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2500000000000003E-3</c:v>
+                  <c:v>3.2250000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5000000000000005E-3</c:v>
+                  <c:v>5.0250000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7499999999999999E-3</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.7499999999999999E-3</c:v>
+                  <c:v>0.10625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9999999999999993E-3</c:v>
+                  <c:v>0.13800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.75E-3</c:v>
+                  <c:v>0.16725000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0499999999999999E-2</c:v>
+                  <c:v>0.1845</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.01</c:v>
+                  <c:v>0.22799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6750000000000001E-2</c:v>
+                  <c:v>0.26749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.175E-2</c:v>
+                  <c:v>0.30175000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.7499999999999999E-3</c:v>
+                  <c:v>0.33650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3500000000000002E-2</c:v>
+                  <c:v>0.37375000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9E-2</c:v>
+                  <c:v>0.436</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.575E-2</c:v>
+                  <c:v>0.46825</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8499999999999999E-2</c:v>
+                  <c:v>0.55400000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -704,7 +645,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7344-41EA-BA37-D1CDD99E1DCE}"/>
+              <c16:uniqueId val="{00000000-F9A1-4D97-BF5D-578779BB27AD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -738,49 +679,7 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -792,64 +691,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
                   <c:v>150000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
                   <c:v>200000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
                   <c:v>250000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>275000</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
                   <c:v>300000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>325000</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
                   <c:v>350000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>375000</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
                   <c:v>400000</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>425000</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
                   <c:v>450000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>475000</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
                   <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>550000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>650000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>700000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>750000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>850000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>900000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>950000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -861,67 +760,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>7.5000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5E-3</c:v>
+                  <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2500000000000003E-3</c:v>
+                  <c:v>6.2500000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7499999999999998E-3</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>2.5500000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5000000000000005E-3</c:v>
+                  <c:v>3.5500000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2500000000000003E-3</c:v>
+                  <c:v>5.2250000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2500000000000003E-3</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4999999999999997E-3</c:v>
+                  <c:v>8.3500000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9999999999999993E-3</c:v>
+                  <c:v>0.10925</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.7499999999999999E-3</c:v>
+                  <c:v>0.13075000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.5000000000000015E-3</c:v>
+                  <c:v>0.16675000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0500000000000001E-2</c:v>
+                  <c:v>0.19750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.75E-3</c:v>
+                  <c:v>0.23299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>0.27274999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2500000000000001E-2</c:v>
+                  <c:v>0.29724999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>0.32924999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.225E-2</c:v>
+                  <c:v>0.40049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8749999999999999E-2</c:v>
+                  <c:v>0.43224999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>0.49175000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.95E-2</c:v>
+                  <c:v>0.54049999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,7 +828,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7344-41EA-BA37-D1CDD99E1DCE}"/>
+              <c16:uniqueId val="{00000002-F9A1-4D97-BF5D-578779BB27AD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -963,49 +862,7 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1017,64 +874,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
                   <c:v>150000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
                   <c:v>200000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
                   <c:v>250000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>275000</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
                   <c:v>300000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>325000</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
                   <c:v>350000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>375000</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
                   <c:v>400000</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>425000</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
                   <c:v>450000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>475000</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
                   <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>550000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>650000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>700000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>750000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>850000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>900000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>950000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1086,67 +943,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5E-3</c:v>
+                  <c:v>3.4999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>8.5000000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2500000000000003E-3</c:v>
+                  <c:v>1.6500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>2.5500000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>3.9750000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5000000000000005E-3</c:v>
+                  <c:v>5.3999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5000000000000006E-3</c:v>
+                  <c:v>7.2750000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7499999999999999E-3</c:v>
+                  <c:v>8.4250000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.7499999999999999E-3</c:v>
+                  <c:v>0.11125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.7499999999999999E-3</c:v>
+                  <c:v>0.13650000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0500000000000001E-2</c:v>
+                  <c:v>0.16800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.125E-2</c:v>
+                  <c:v>0.20024999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>0.23699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7500000000000002E-2</c:v>
+                  <c:v>0.26900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4250000000000001E-2</c:v>
+                  <c:v>0.30924999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2499999999999995E-3</c:v>
+                  <c:v>0.33374999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.175E-2</c:v>
+                  <c:v>0.40375</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9E-2</c:v>
+                  <c:v>0.45524999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6750000000000001E-2</c:v>
+                  <c:v>0.48225000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0499999999999997E-2</c:v>
+                  <c:v>0.53674999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,7 +1011,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7344-41EA-BA37-D1CDD99E1DCE}"/>
+              <c16:uniqueId val="{00000003-F9A1-4D97-BF5D-578779BB27AD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1188,49 +1045,7 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1242,64 +1057,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
                   <c:v>150000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
                   <c:v>200000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
                   <c:v>250000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>275000</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
                   <c:v>300000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>325000</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
                   <c:v>350000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>375000</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
                   <c:v>400000</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>425000</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
                   <c:v>450000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>475000</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
                   <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>550000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>650000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>700000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>750000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>850000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>900000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>950000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1311,67 +1126,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.75E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>7.2499999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2500000000000003E-3</c:v>
+                  <c:v>1.7250000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>2.5499999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2500000000000003E-3</c:v>
+                  <c:v>3.8249999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5000000000000005E-3</c:v>
+                  <c:v>5.6750000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>7.2500000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2499999999999995E-3</c:v>
+                  <c:v>8.7000000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.7499999999999999E-3</c:v>
+                  <c:v>0.11174999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.7499999999999999E-3</c:v>
+                  <c:v>0.13925000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0249999999999999E-2</c:v>
+                  <c:v>0.17149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.175E-2</c:v>
+                  <c:v>0.20730000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.125E-2</c:v>
+                  <c:v>0.23574999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8250000000000002E-2</c:v>
+                  <c:v>0.26200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3000000000000001E-2</c:v>
+                  <c:v>0.29774999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>0.33899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.325E-2</c:v>
+                  <c:v>0.41149999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9E-2</c:v>
+                  <c:v>0.44074999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>0.49824999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0249999999999997E-2</c:v>
+                  <c:v>0.5482499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1379,7 +1194,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-7344-41EA-BA37-D1CDD99E1DCE}"/>
+              <c16:uniqueId val="{00000004-F9A1-4D97-BF5D-578779BB27AD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1391,13 +1206,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439876048"/>
-        <c:axId val="439879000"/>
+        <c:axId val="485151440"/>
+        <c:axId val="485152424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="439876048"/>
+        <c:axId val="485151440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,14 +1224,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="10000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
@@ -1441,14 +1255,14 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="10000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
                       <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                  <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
@@ -1478,21 +1292,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="10000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439879000"/>
+        <c:crossAx val="485152424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1500,7 +1314,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="439879000"/>
+        <c:axId val="485152424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,14 +1341,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="10000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
@@ -1558,14 +1372,14 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="10000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
                       <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                  <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
@@ -1589,21 +1403,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="10000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439876048"/>
+        <c:crossAx val="485151440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1616,7 +1430,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1630,14 +1444,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="10000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -1687,10 +1501,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="4000">
-          <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-          <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-        </a:defRPr>
+        <a:defRPr sz="10000"/>
       </a:pPr>
       <a:endParaRPr lang="hu-HU"/>
     </a:p>
@@ -2244,22 +2055,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>16566</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>160683</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>99</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>313</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1">
+        <xdr:cNvPr id="4" name="Diagram 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1D3133-EE0A-4DFE-B1DF-828DEC52325C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08883F84-2683-4DDB-AFBA-A921DB7BA5AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2579,8 +2390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D186E6E-61B8-48CF-A451-501FEA76048A}">
   <dimension ref="B2:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="CJ425" sqref="CJ425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2599,90 +2410,90 @@
       <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="15">
+        <v>25000</v>
+      </c>
+      <c r="E3" s="5">
         <v>50000</v>
       </c>
-      <c r="E3" s="22">
+      <c r="F3" s="15">
+        <v>75000</v>
+      </c>
+      <c r="G3" s="5">
         <v>100000</v>
       </c>
-      <c r="F3" s="22">
+      <c r="H3" s="15">
+        <v>125000</v>
+      </c>
+      <c r="I3" s="5">
         <v>150000</v>
       </c>
-      <c r="G3" s="21">
+      <c r="J3" s="15">
+        <v>175000</v>
+      </c>
+      <c r="K3" s="5">
         <v>200000</v>
       </c>
-      <c r="H3" s="22">
+      <c r="L3" s="15">
+        <v>225000</v>
+      </c>
+      <c r="M3" s="5">
         <v>250000</v>
       </c>
-      <c r="I3" s="22">
+      <c r="N3" s="15">
+        <v>275000</v>
+      </c>
+      <c r="O3" s="5">
         <v>300000</v>
       </c>
-      <c r="J3" s="21">
+      <c r="P3" s="15">
+        <v>325000</v>
+      </c>
+      <c r="Q3" s="5">
         <v>350000</v>
       </c>
-      <c r="K3" s="22">
+      <c r="R3" s="15">
+        <v>375000</v>
+      </c>
+      <c r="S3" s="5">
         <v>400000</v>
       </c>
-      <c r="L3" s="22">
+      <c r="T3" s="15">
+        <v>425000</v>
+      </c>
+      <c r="U3" s="5">
         <v>450000</v>
       </c>
-      <c r="M3" s="21">
+      <c r="V3" s="15">
+        <v>475000</v>
+      </c>
+      <c r="W3" s="5">
         <v>500000</v>
-      </c>
-      <c r="N3" s="22">
-        <v>550000</v>
-      </c>
-      <c r="O3" s="22">
-        <v>600000</v>
-      </c>
-      <c r="P3" s="21">
-        <v>650000</v>
-      </c>
-      <c r="Q3" s="22">
-        <v>700000</v>
-      </c>
-      <c r="R3" s="22">
-        <v>750000</v>
-      </c>
-      <c r="S3" s="21">
-        <v>800000</v>
-      </c>
-      <c r="T3" s="22">
-        <v>850000</v>
-      </c>
-      <c r="U3" s="22">
-        <v>900000</v>
-      </c>
-      <c r="V3" s="21">
-        <v>950000</v>
-      </c>
-      <c r="W3" s="23">
-        <v>1000000</v>
       </c>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -2692,64 +2503,64 @@
         <v>0</v>
       </c>
       <c r="D5" s="11">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E5" s="11">
-        <v>1E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F5" s="11">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G5" s="11">
-        <v>3.0000000000000001E-3</v>
+        <v>2.3E-2</v>
       </c>
       <c r="H5" s="11">
-        <v>7.0000000000000001E-3</v>
+        <v>3.1E-2</v>
       </c>
       <c r="I5" s="11">
-        <v>8.0000000000000002E-3</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="J5" s="11">
-        <v>5.0000000000000001E-3</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="K5" s="11">
-        <v>2E-3</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="L5" s="11">
-        <v>4.0000000000000001E-3</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="M5" s="11">
-        <v>6.0000000000000001E-3</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="N5" s="11">
-        <v>1.4999999999999999E-2</v>
+        <v>0.153</v>
       </c>
       <c r="O5" s="11">
-        <v>1.0999999999999999E-2</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="P5" s="11">
-        <v>8.0000000000000002E-3</v>
+        <v>0.223</v>
       </c>
       <c r="Q5" s="11">
-        <v>7.0000000000000001E-3</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="R5" s="11">
-        <v>1.4999999999999999E-2</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="S5" s="11">
-        <v>7.0000000000000001E-3</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="T5" s="11">
-        <v>5.0000000000000001E-3</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="U5" s="11">
-        <v>1.0999999999999999E-2</v>
+        <v>0.42</v>
       </c>
       <c r="V5" s="11">
-        <v>1.6E-2</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="W5" s="12">
-        <v>1.4999999999999999E-2</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
@@ -2763,61 +2574,61 @@
         <v>2E-3</v>
       </c>
       <c r="E6" s="6">
-        <v>1E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F6" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H6" s="6">
-        <v>8.0000000000000002E-3</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="I6" s="6">
-        <v>7.0000000000000001E-3</v>
+        <v>0.05</v>
       </c>
       <c r="J6" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>6.2E-2</v>
       </c>
       <c r="K6" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="L6" s="6">
-        <v>2E-3</v>
+        <v>0.112</v>
       </c>
       <c r="M6" s="6">
-        <v>6.0000000000000001E-3</v>
+        <v>0.13</v>
       </c>
       <c r="N6" s="6">
-        <v>1.6E-2</v>
+        <v>0.153</v>
       </c>
       <c r="O6" s="6">
-        <v>1.2E-2</v>
+        <v>0.188</v>
       </c>
       <c r="P6" s="6">
-        <v>8.0000000000000002E-3</v>
+        <v>0.22</v>
       </c>
       <c r="Q6" s="6">
-        <v>8.9999999999999993E-3</v>
+        <v>0.26</v>
       </c>
       <c r="R6" s="6">
-        <v>1.6E-2</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="S6" s="6">
-        <v>7.0000000000000001E-3</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="T6" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>0.37</v>
       </c>
       <c r="U6" s="6">
-        <v>1.0999999999999999E-2</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="V6" s="6">
-        <v>1.4999999999999999E-2</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="W6" s="8">
-        <v>1.2999999999999999E-2</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
@@ -2825,67 +2636,67 @@
         <v>2</v>
       </c>
       <c r="C7" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D7" s="6">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E7" s="6">
-        <v>2E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F7" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G7" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H7" s="6">
-        <v>6.0000000000000001E-3</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="I7" s="6">
-        <v>8.9999999999999993E-3</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J7" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K7" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="L7" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>0.106</v>
       </c>
       <c r="M7" s="6">
-        <v>6.0000000000000001E-3</v>
+        <v>0.128</v>
       </c>
       <c r="N7" s="6">
-        <v>1.4999999999999999E-2</v>
+        <v>0.159</v>
       </c>
       <c r="O7" s="6">
-        <v>1.4999999999999999E-2</v>
+        <v>0.19</v>
       </c>
       <c r="P7" s="6">
-        <v>0.01</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="Q7" s="6">
-        <v>8.0000000000000002E-3</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="R7" s="6">
-        <v>2.1000000000000001E-2</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="S7" s="6">
-        <v>8.0000000000000002E-3</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="T7" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>0.4</v>
       </c>
       <c r="U7" s="6">
-        <v>1.0999999999999999E-2</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="V7" s="6">
-        <v>1.7000000000000001E-2</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="W7" s="8">
-        <v>1.4E-2</v>
+        <v>0.50700000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2893,92 +2704,92 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1E-3</v>
-      </c>
       <c r="F8" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G8" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H8" s="7">
-        <v>8.0000000000000002E-3</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="I8" s="7">
-        <v>8.0000000000000002E-3</v>
+        <v>4.7E-2</v>
       </c>
       <c r="J8" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="K8" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="L8" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>0.114</v>
       </c>
       <c r="M8" s="7">
-        <v>6.0000000000000001E-3</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="N8" s="7">
-        <v>1.4999999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="O8" s="7">
-        <v>1.4999999999999999E-2</v>
+        <v>0.187</v>
       </c>
       <c r="P8" s="7">
-        <v>8.0000000000000002E-3</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="Q8" s="7">
-        <v>0.01</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="R8" s="7">
-        <v>1.9E-2</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="S8" s="7">
-        <v>7.0000000000000001E-3</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="T8" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="U8" s="7">
-        <v>1.2E-2</v>
+        <v>0.43</v>
       </c>
       <c r="V8" s="7">
-        <v>1.7000000000000001E-2</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="W8" s="9">
-        <v>1.4E-2</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="21"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -2988,64 +2799,64 @@
         <v>0</v>
       </c>
       <c r="D10" s="11">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E10" s="11">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F10" s="11">
-        <v>2E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G10" s="11">
-        <v>8.0000000000000002E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H10" s="11">
-        <v>6.0000000000000001E-3</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="I10" s="11">
-        <v>5.0000000000000001E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="J10" s="11">
-        <v>6.0000000000000001E-3</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="K10" s="11">
-        <v>0.01</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="L10" s="11">
-        <v>1.2E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="M10" s="11">
-        <v>2E-3</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="N10" s="11">
-        <v>8.0000000000000002E-3</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="O10" s="11">
-        <v>2E-3</v>
+        <v>0.18</v>
       </c>
       <c r="P10" s="11">
-        <v>5.0000000000000001E-3</v>
+        <v>0.248</v>
       </c>
       <c r="Q10" s="11">
-        <v>1.4E-2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="R10" s="11">
-        <v>1.6E-2</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="S10" s="11">
-        <v>3.0000000000000001E-3</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="T10" s="11">
-        <v>1.2E-2</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="U10" s="11">
-        <v>3.4000000000000002E-2</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="V10" s="11">
-        <v>1.6E-2</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="W10" s="12">
-        <v>1.4999999999999999E-2</v>
+        <v>0.60399999999999998</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
@@ -3056,64 +2867,64 @@
         <v>1E-3</v>
       </c>
       <c r="D11" s="6">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E11" s="6">
-        <v>2E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F11" s="6">
-        <v>2E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G11" s="6">
-        <v>6.0000000000000001E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H11" s="6">
-        <v>7.0000000000000001E-3</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="I11" s="6">
-        <v>7.0000000000000001E-3</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="J11" s="6">
-        <v>7.0000000000000001E-3</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="K11" s="6">
-        <v>8.9999999999999993E-3</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="L11" s="6">
-        <v>0.01</v>
+        <v>0.112</v>
       </c>
       <c r="M11" s="6">
-        <v>2E-3</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="N11" s="6">
-        <v>8.0000000000000002E-3</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="O11" s="6">
-        <v>2E-3</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="P11" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="Q11" s="6">
-        <v>1.2999999999999999E-2</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="R11" s="6">
-        <v>1.9E-2</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="S11" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="T11" s="6">
-        <v>1.2999999999999999E-2</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="U11" s="6">
-        <v>3.5000000000000003E-2</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="V11" s="6">
-        <v>1.6E-2</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="W11" s="8">
-        <v>1.4E-2</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
@@ -3121,67 +2932,67 @@
         <v>2</v>
       </c>
       <c r="C12" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D12" s="6">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E12" s="6">
-        <v>2E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F12" s="6">
-        <v>2E-3</v>
+        <v>0.02</v>
       </c>
       <c r="G12" s="6">
-        <v>8.0000000000000002E-3</v>
+        <v>2.3E-2</v>
       </c>
       <c r="H12" s="6">
-        <v>6.0000000000000001E-3</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="I12" s="6">
-        <v>7.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="J12" s="6">
-        <v>8.0000000000000002E-3</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="K12" s="6">
-        <v>8.0000000000000002E-3</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="L12" s="6">
-        <v>0.01</v>
+        <v>0.106</v>
       </c>
       <c r="M12" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>0.158</v>
       </c>
       <c r="N12" s="6">
-        <v>8.9999999999999993E-3</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="O12" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>0.215</v>
       </c>
       <c r="P12" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="Q12" s="6">
-        <v>1.4999999999999999E-2</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="R12" s="6">
-        <v>1.9E-2</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="S12" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="T12" s="6">
-        <v>1.0999999999999999E-2</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="U12" s="6">
-        <v>3.2000000000000001E-2</v>
+        <v>0.503</v>
       </c>
       <c r="V12" s="6">
-        <v>1.7000000000000001E-2</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="W12" s="8">
-        <v>1.9E-2</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="13" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3189,92 +3000,92 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D13" s="7">
-        <v>2E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E13" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F13" s="7">
-        <v>2E-3</v>
+        <v>0.02</v>
       </c>
       <c r="G13" s="7">
-        <v>8.9999999999999993E-3</v>
+        <v>3.1E-2</v>
       </c>
       <c r="H13" s="7">
-        <v>8.0000000000000002E-3</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="I13" s="7">
-        <v>7.0000000000000001E-3</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="J13" s="7">
-        <v>8.0000000000000002E-3</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="K13" s="7">
-        <v>8.9999999999999993E-3</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="L13" s="7">
-        <v>1.2E-2</v>
+        <v>0.111</v>
       </c>
       <c r="M13" s="7">
-        <v>2E-3</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="N13" s="7">
-        <v>8.9999999999999993E-3</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="O13" s="7">
-        <v>2E-3</v>
+        <v>0.217</v>
       </c>
       <c r="P13" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="Q13" s="7">
-        <v>1.4999999999999999E-2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="R13" s="7">
-        <v>1.6E-2</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="S13" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="T13" s="7">
-        <v>1.2999999999999999E-2</v>
+        <v>0.41</v>
       </c>
       <c r="U13" s="7">
-        <v>3.2000000000000001E-2</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="V13" s="7">
-        <v>1.7000000000000001E-2</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="W13" s="9">
-        <v>1.7999999999999999E-2</v>
+        <v>0.58299999999999996</v>
       </c>
     </row>
     <row r="14" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="21"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -3284,64 +3095,64 @@
         <v>0</v>
       </c>
       <c r="D15" s="11">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E15" s="11">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F15" s="11">
-        <v>2E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G15" s="11">
-        <v>5.0000000000000001E-3</v>
+        <v>2.3E-2</v>
       </c>
       <c r="H15" s="11">
-        <v>2E-3</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="I15" s="11">
-        <v>2E-3</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="J15" s="11">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K15" s="11">
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L15" s="11">
-        <v>1.0999999999999999E-2</v>
+        <v>0.105</v>
       </c>
       <c r="M15" s="11">
-        <v>1.2999999999999999E-2</v>
+        <v>0.128</v>
       </c>
       <c r="N15" s="11">
-        <v>1.2999999999999999E-2</v>
+        <v>0.184</v>
       </c>
       <c r="O15" s="11">
-        <v>1.7999999999999999E-2</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="P15" s="11">
-        <v>1.0999999999999999E-2</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="Q15" s="11">
-        <v>2.4E-2</v>
+        <v>0.247</v>
       </c>
       <c r="R15" s="11">
-        <v>2E-3</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="S15" s="11">
-        <v>6.0000000000000001E-3</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="T15" s="11">
-        <v>2.1000000000000001E-2</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="U15" s="11">
-        <v>2.1999999999999999E-2</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="V15" s="11">
-        <v>2.1000000000000001E-2</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="W15" s="12">
-        <v>1.2E-2</v>
+        <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
@@ -3355,61 +3166,61 @@
         <v>1E-3</v>
       </c>
       <c r="E16" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F16" s="6">
-        <v>2E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G16" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H16" s="6">
-        <v>2E-3</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="I16" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>0.05</v>
       </c>
       <c r="J16" s="6">
-        <v>8.0000000000000002E-3</v>
+        <v>0.08</v>
       </c>
       <c r="K16" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>0.08</v>
       </c>
       <c r="L16" s="6">
-        <v>8.9999999999999993E-3</v>
+        <v>0.105</v>
       </c>
       <c r="M16" s="6">
-        <v>1.6E-2</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="N16" s="6">
-        <v>1.0999999999999999E-2</v>
+        <v>0.18</v>
       </c>
       <c r="O16" s="6">
-        <v>1.7999999999999999E-2</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="P16" s="6">
-        <v>1.2E-2</v>
+        <v>0.248</v>
       </c>
       <c r="Q16" s="6">
-        <v>2.3E-2</v>
+        <v>0.252</v>
       </c>
       <c r="R16" s="6">
-        <v>2E-3</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="S16" s="6">
-        <v>7.0000000000000001E-3</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="T16" s="6">
-        <v>1.7999999999999999E-2</v>
+        <v>0.435</v>
       </c>
       <c r="U16" s="6">
-        <v>0.02</v>
+        <v>0.45</v>
       </c>
       <c r="V16" s="6">
-        <v>0.02</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="W16" s="8">
-        <v>1.2999999999999999E-2</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
@@ -3417,67 +3228,67 @@
         <v>2</v>
       </c>
       <c r="C17" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D17" s="6">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E17" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F17" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G17" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="H17" s="6">
-        <v>2E-3</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="I17" s="6">
-        <v>2E-3</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="J17" s="6">
-        <v>8.0000000000000002E-3</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="K17" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="L17" s="6">
-        <v>1.0999999999999999E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="M17" s="6">
-        <v>1.2999999999999999E-2</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="N17" s="6">
-        <v>1.4999999999999999E-2</v>
+        <v>0.191</v>
       </c>
       <c r="O17" s="6">
-        <v>1.6E-2</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="P17" s="6">
-        <v>1.2E-2</v>
+        <v>0.246</v>
       </c>
       <c r="Q17" s="6">
-        <v>2.3E-2</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="R17" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="S17" s="6">
-        <v>7.0000000000000001E-3</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="T17" s="6">
-        <v>1.7000000000000001E-2</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="U17" s="6">
-        <v>2.4E-2</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="V17" s="6">
-        <v>2.1999999999999999E-2</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="W17" s="8">
-        <v>1.0999999999999999E-2</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="18" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3488,89 +3299,89 @@
         <v>1E-3</v>
       </c>
       <c r="D18" s="7">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E18" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F18" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G18" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>0.03</v>
       </c>
       <c r="H18" s="7">
-        <v>2E-3</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="I18" s="7">
-        <v>2E-3</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="J18" s="7">
-        <v>8.0000000000000002E-3</v>
+        <v>7.8E-2</v>
       </c>
       <c r="K18" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>7.8E-2</v>
       </c>
       <c r="L18" s="7">
-        <v>1.0999999999999999E-2</v>
+        <v>0.13</v>
       </c>
       <c r="M18" s="7">
-        <v>1.6E-2</v>
+        <v>0.151</v>
       </c>
       <c r="N18" s="7">
-        <v>1.2999999999999999E-2</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="O18" s="7">
-        <v>1.9E-2</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="P18" s="7">
-        <v>1.4999999999999999E-2</v>
+        <v>0.24</v>
       </c>
       <c r="Q18" s="7">
-        <v>2.5999999999999999E-2</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="R18" s="7">
-        <v>2E-3</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="S18" s="7">
-        <v>6.0000000000000001E-3</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="T18" s="7">
-        <v>0.02</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="U18" s="7">
-        <v>2.3E-2</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="V18" s="7">
-        <v>2.3E-2</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="W18" s="9">
-        <v>1.0999999999999999E-2</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="19" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="21"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
@@ -3580,64 +3391,64 @@
         <v>0</v>
       </c>
       <c r="D20" s="11">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E20" s="11">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F20" s="11">
-        <v>4.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G20" s="11">
-        <v>5.0000000000000001E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="H20" s="11">
-        <v>2E-3</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I20" s="11">
-        <v>3.0000000000000001E-3</v>
+        <v>0.05</v>
       </c>
       <c r="J20" s="11">
-        <v>5.0000000000000001E-3</v>
+        <v>0.08</v>
       </c>
       <c r="K20" s="11">
-        <v>1.0999999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L20" s="11">
-        <v>4.0000000000000001E-3</v>
+        <v>0.109</v>
       </c>
       <c r="M20" s="11">
-        <v>3.0000000000000001E-3</v>
+        <v>0.121</v>
       </c>
       <c r="N20" s="11">
-        <v>3.0000000000000001E-3</v>
+        <v>0.17</v>
       </c>
       <c r="O20" s="11">
-        <v>1.0999999999999999E-2</v>
+        <v>0.187</v>
       </c>
       <c r="P20" s="11">
-        <v>1.6E-2</v>
+        <v>0.215</v>
       </c>
       <c r="Q20" s="11">
-        <v>2.1999999999999999E-2</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="R20" s="11">
-        <v>1.4E-2</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="S20" s="11">
-        <v>7.0000000000000001E-3</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="T20" s="11">
-        <v>1.6E-2</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="U20" s="11">
-        <v>8.9999999999999993E-3</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="V20" s="11">
-        <v>0.01</v>
+        <v>0.434</v>
       </c>
       <c r="W20" s="12">
-        <v>3.2000000000000001E-2</v>
+        <v>0.56499999999999995</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
@@ -3645,67 +3456,67 @@
         <v>1</v>
       </c>
       <c r="C21" s="6">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="D21" s="6">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E21" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F21" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G21" s="6">
-        <v>6.0000000000000001E-3</v>
+        <v>2.4E-2</v>
       </c>
       <c r="H21" s="6">
-        <v>1E-3</v>
+        <v>3.1E-2</v>
       </c>
       <c r="I21" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="J21" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="K21" s="6">
-        <v>1.2E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="L21" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>0.108</v>
       </c>
       <c r="M21" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>0.12</v>
       </c>
       <c r="N21" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>0.155</v>
       </c>
       <c r="O21" s="6">
-        <v>0.01</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="P21" s="6">
-        <v>1.6E-2</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="Q21" s="6">
-        <v>2.3E-2</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="R21" s="6">
-        <v>1.2999999999999999E-2</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="S21" s="6">
-        <v>7.0000000000000001E-3</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="T21" s="6">
-        <v>1.4E-2</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="U21" s="6">
-        <v>8.9999999999999993E-3</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="V21" s="6">
-        <v>1.2999999999999999E-2</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="W21" s="8">
-        <v>3.7999999999999999E-2</v>
+        <v>0.51900000000000002</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
@@ -3713,67 +3524,67 @@
         <v>2</v>
       </c>
       <c r="C22" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D22" s="6">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E22" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F22" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G22" s="6">
-        <v>8.0000000000000002E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H22" s="6">
-        <v>2E-3</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="I22" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="J22" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K22" s="6">
-        <v>1.2E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L22" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="M22" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="N22" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>0.16</v>
       </c>
       <c r="O22" s="6">
-        <v>1.0999999999999999E-2</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="P22" s="6">
-        <v>2.1000000000000001E-2</v>
+        <v>0.219</v>
       </c>
       <c r="Q22" s="6">
-        <v>2.4E-2</v>
+        <v>0.253</v>
       </c>
       <c r="R22" s="6">
-        <v>1.4E-2</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="S22" s="6">
-        <v>7.0000000000000001E-3</v>
+        <v>0.315</v>
       </c>
       <c r="T22" s="6">
-        <v>1.4E-2</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="U22" s="6">
-        <v>8.9999999999999993E-3</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="V22" s="6">
-        <v>1.0999999999999999E-2</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="W22" s="8">
-        <v>3.7999999999999999E-2</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="23" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3781,428 +3592,428 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D23" s="7">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E23" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F23" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G23" s="7">
-        <v>7.0000000000000001E-3</v>
+        <v>1.9E-2</v>
       </c>
       <c r="H23" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>3.1E-2</v>
       </c>
       <c r="I23" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="J23" s="7">
-        <v>7.0000000000000001E-3</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="K23" s="7">
-        <v>1.0999999999999999E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="L23" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M23" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>0.123</v>
       </c>
       <c r="N23" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>0.189</v>
       </c>
       <c r="O23" s="7">
-        <v>1.0999999999999999E-2</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="P23" s="7">
-        <v>1.7000000000000001E-2</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="Q23" s="7">
-        <v>2.1999999999999999E-2</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="R23" s="7">
-        <v>1.4999999999999999E-2</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="S23" s="7">
-        <v>7.0000000000000001E-3</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="T23" s="7">
-        <v>1.4999999999999999E-2</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="U23" s="7">
-        <v>8.9999999999999993E-3</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="V23" s="7">
-        <v>1.0999999999999999E-2</v>
+        <v>0.501</v>
       </c>
       <c r="W23" s="9">
-        <v>3.7999999999999999E-2</v>
+        <v>0.57699999999999996</v>
       </c>
     </row>
     <row r="24" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="str">
+      <c r="B25" s="13" t="str">
         <f>B20</f>
         <v>Thread - 1</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="14">
         <f>AVERAGE(C10,C5,C15,C20)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="14">
         <f>AVERAGE(D10,D5,D15,D20)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="E25" s="20">
+        <v>2.2500000000000003E-3</v>
+      </c>
+      <c r="E25" s="14">
         <f t="shared" ref="E25:W27" si="0">AVERAGE(E10,E5,E15,E20)</f>
-        <v>1.5E-3</v>
-      </c>
-      <c r="F25" s="20">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="F25" s="14">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G25" s="20">
+        <v>1.3749999999999998E-2</v>
+      </c>
+      <c r="G25" s="14">
         <f t="shared" si="0"/>
-        <v>5.2500000000000003E-3</v>
-      </c>
-      <c r="H25" s="20">
+        <v>2.2250000000000002E-2</v>
+      </c>
+      <c r="H25" s="14">
         <f t="shared" si="0"/>
-        <v>4.2500000000000003E-3</v>
-      </c>
-      <c r="I25" s="20">
+        <v>3.2250000000000001E-2</v>
+      </c>
+      <c r="I25" s="14">
         <f t="shared" si="0"/>
-        <v>4.5000000000000005E-3</v>
-      </c>
-      <c r="J25" s="20">
+        <v>5.0250000000000003E-2</v>
+      </c>
+      <c r="J25" s="14">
         <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K25" s="20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K25" s="14">
         <f t="shared" si="0"/>
-        <v>6.7499999999999999E-3</v>
-      </c>
-      <c r="L25" s="20">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="L25" s="14">
         <f t="shared" si="0"/>
-        <v>7.7499999999999999E-3</v>
-      </c>
-      <c r="M25" s="20">
+        <v>0.10625</v>
+      </c>
+      <c r="M25" s="14">
         <f t="shared" si="0"/>
-        <v>5.9999999999999993E-3</v>
-      </c>
-      <c r="N25" s="20">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="N25" s="14">
         <f t="shared" si="0"/>
-        <v>9.75E-3</v>
-      </c>
-      <c r="O25" s="20">
+        <v>0.16725000000000001</v>
+      </c>
+      <c r="O25" s="14">
         <f t="shared" si="0"/>
-        <v>1.0499999999999999E-2</v>
-      </c>
-      <c r="P25" s="20">
+        <v>0.1845</v>
+      </c>
+      <c r="P25" s="14">
         <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-      <c r="Q25" s="20">
+        <v>0.22799999999999998</v>
+      </c>
+      <c r="Q25" s="14">
         <f t="shared" si="0"/>
-        <v>1.6750000000000001E-2</v>
-      </c>
-      <c r="R25" s="20">
+        <v>0.26749999999999996</v>
+      </c>
+      <c r="R25" s="14">
         <f t="shared" si="0"/>
-        <v>1.175E-2</v>
-      </c>
-      <c r="S25" s="20">
+        <v>0.30175000000000002</v>
+      </c>
+      <c r="S25" s="14">
         <f t="shared" si="0"/>
-        <v>5.7499999999999999E-3</v>
-      </c>
-      <c r="T25" s="20">
+        <v>0.33650000000000002</v>
+      </c>
+      <c r="T25" s="14">
         <f t="shared" si="0"/>
-        <v>1.3500000000000002E-2</v>
-      </c>
-      <c r="U25" s="20">
+        <v>0.37375000000000003</v>
+      </c>
+      <c r="U25" s="14">
         <f t="shared" si="0"/>
-        <v>1.9E-2</v>
-      </c>
-      <c r="V25" s="20">
+        <v>0.436</v>
+      </c>
+      <c r="V25" s="14">
         <f t="shared" si="0"/>
-        <v>1.575E-2</v>
-      </c>
-      <c r="W25" s="20">
+        <v>0.46825</v>
+      </c>
+      <c r="W25" s="14">
         <f t="shared" si="0"/>
-        <v>1.8499999999999999E-2</v>
+        <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="26" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="19" t="str">
+      <c r="B26" s="13" t="str">
         <f t="shared" ref="B26:B28" si="1">B21</f>
         <v>Thread - 2</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="14">
         <f>AVERAGE(C11,C6,C16,C21)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="D26" s="20">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="D26" s="14">
         <f t="shared" ref="D26:S27" si="2">AVERAGE(D11,D6,D16,D21)</f>
-        <v>1.5E-3</v>
-      </c>
-      <c r="E26" s="20">
-        <f t="shared" si="2"/>
-        <v>2.2500000000000003E-3</v>
-      </c>
-      <c r="F26" s="20">
-        <f t="shared" si="2"/>
-        <v>2.7499999999999998E-3</v>
-      </c>
-      <c r="G26" s="20">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H26" s="20">
-        <f t="shared" si="2"/>
-        <v>4.5000000000000005E-3</v>
-      </c>
-      <c r="I26" s="20">
-        <f t="shared" si="2"/>
-        <v>5.2500000000000003E-3</v>
-      </c>
-      <c r="J26" s="20">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E26" s="14">
         <f t="shared" si="2"/>
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="K26" s="20">
+      <c r="F26" s="14">
         <f t="shared" si="2"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="L26" s="20">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G26" s="14">
         <f t="shared" si="2"/>
-        <v>5.9999999999999993E-3</v>
-      </c>
-      <c r="M26" s="20">
+        <v>2.5500000000000002E-2</v>
+      </c>
+      <c r="H26" s="14">
         <f t="shared" si="2"/>
-        <v>6.7499999999999999E-3</v>
-      </c>
-      <c r="N26" s="20">
+        <v>3.5500000000000004E-2</v>
+      </c>
+      <c r="I26" s="14">
         <f t="shared" si="2"/>
-        <v>9.5000000000000015E-3</v>
-      </c>
-      <c r="O26" s="20">
+        <v>5.2250000000000005E-2</v>
+      </c>
+      <c r="J26" s="14">
         <f t="shared" si="2"/>
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="P26" s="20">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="K26" s="14">
         <f t="shared" si="2"/>
-        <v>9.75E-3</v>
-      </c>
-      <c r="Q26" s="20">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="L26" s="14">
         <f t="shared" si="2"/>
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="R26" s="20">
+        <v>0.10925</v>
+      </c>
+      <c r="M26" s="14">
         <f t="shared" si="2"/>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="S26" s="20">
+        <v>0.13075000000000001</v>
+      </c>
+      <c r="N26" s="14">
         <f t="shared" si="2"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="T26" s="20">
+        <v>0.16675000000000001</v>
+      </c>
+      <c r="O26" s="14">
+        <f t="shared" si="2"/>
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="P26" s="14">
+        <f t="shared" si="2"/>
+        <v>0.23299999999999998</v>
+      </c>
+      <c r="Q26" s="14">
+        <f t="shared" si="2"/>
+        <v>0.27274999999999999</v>
+      </c>
+      <c r="R26" s="14">
+        <f t="shared" si="2"/>
+        <v>0.29724999999999996</v>
+      </c>
+      <c r="S26" s="14">
+        <f t="shared" si="2"/>
+        <v>0.32924999999999999</v>
+      </c>
+      <c r="T26" s="14">
         <f t="shared" si="0"/>
-        <v>1.225E-2</v>
-      </c>
-      <c r="U26" s="20">
+        <v>0.40049999999999997</v>
+      </c>
+      <c r="U26" s="14">
         <f t="shared" si="0"/>
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="V26" s="20">
+        <v>0.43224999999999997</v>
+      </c>
+      <c r="V26" s="14">
         <f t="shared" si="0"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="W26" s="20">
+        <v>0.49175000000000002</v>
+      </c>
+      <c r="W26" s="14">
         <f t="shared" si="0"/>
-        <v>1.95E-2</v>
+        <v>0.54049999999999998</v>
       </c>
     </row>
     <row r="27" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="19" t="str">
+      <c r="B27" s="13" t="str">
         <f t="shared" si="1"/>
         <v>Thread - 4</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="14">
         <f>AVERAGE(C12,C7,C17,C22)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="D27" s="14">
         <f t="shared" si="2"/>
-        <v>1.5E-3</v>
-      </c>
-      <c r="E27" s="20">
+        <v>3.4999999999999996E-3</v>
+      </c>
+      <c r="E27" s="14">
         <f t="shared" si="0"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="F27" s="20">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="F27" s="14">
         <f t="shared" si="0"/>
-        <v>3.2500000000000003E-3</v>
-      </c>
-      <c r="G27" s="20">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="G27" s="14">
         <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H27" s="20">
+        <v>2.5500000000000002E-2</v>
+      </c>
+      <c r="H27" s="14">
         <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I27" s="20">
+        <v>3.9750000000000001E-2</v>
+      </c>
+      <c r="I27" s="14">
         <f t="shared" si="0"/>
-        <v>5.5000000000000005E-3</v>
-      </c>
-      <c r="J27" s="20">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="J27" s="14">
         <f t="shared" si="0"/>
-        <v>6.5000000000000006E-3</v>
-      </c>
-      <c r="K27" s="20">
+        <v>7.2750000000000009E-2</v>
+      </c>
+      <c r="K27" s="14">
         <f t="shared" si="0"/>
-        <v>6.7499999999999999E-3</v>
-      </c>
-      <c r="L27" s="20">
+        <v>8.4250000000000005E-2</v>
+      </c>
+      <c r="L27" s="14">
         <f t="shared" si="0"/>
-        <v>6.7499999999999999E-3</v>
-      </c>
-      <c r="M27" s="20">
+        <v>0.11125</v>
+      </c>
+      <c r="M27" s="14">
         <f t="shared" si="0"/>
-        <v>6.7499999999999999E-3</v>
-      </c>
-      <c r="N27" s="20">
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="N27" s="14">
         <f t="shared" si="0"/>
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="O27" s="20">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="O27" s="14">
         <f t="shared" si="0"/>
-        <v>1.125E-2</v>
-      </c>
-      <c r="P27" s="20">
+        <v>0.20024999999999998</v>
+      </c>
+      <c r="P27" s="14">
         <f t="shared" si="0"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="Q27" s="20">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="Q27" s="14">
         <f t="shared" si="0"/>
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="R27" s="20">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="R27" s="14">
         <f t="shared" si="0"/>
-        <v>1.4250000000000001E-2</v>
-      </c>
-      <c r="S27" s="20">
+        <v>0.30924999999999997</v>
+      </c>
+      <c r="S27" s="14">
         <f t="shared" si="0"/>
-        <v>6.2499999999999995E-3</v>
-      </c>
-      <c r="T27" s="20">
+        <v>0.33374999999999999</v>
+      </c>
+      <c r="T27" s="14">
         <f t="shared" si="0"/>
-        <v>1.175E-2</v>
-      </c>
-      <c r="U27" s="20">
+        <v>0.40375</v>
+      </c>
+      <c r="U27" s="14">
         <f t="shared" si="0"/>
-        <v>1.9E-2</v>
-      </c>
-      <c r="V27" s="20">
+        <v>0.45524999999999999</v>
+      </c>
+      <c r="V27" s="14">
         <f t="shared" si="0"/>
-        <v>1.6750000000000001E-2</v>
-      </c>
-      <c r="W27" s="20">
+        <v>0.48225000000000001</v>
+      </c>
+      <c r="W27" s="14">
         <f t="shared" si="0"/>
-        <v>2.0499999999999997E-2</v>
+        <v>0.53674999999999995</v>
       </c>
     </row>
     <row r="28" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="19" t="str">
+      <c r="B28" s="13" t="str">
         <f t="shared" si="1"/>
         <v>Thread - 8</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="14">
         <f>AVERAGE(C13,C8,C18,C23)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="D28" s="20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D28" s="14">
         <f>AVERAGE(D13,D8,D18,D23)</f>
-        <v>1.75E-3</v>
-      </c>
-      <c r="E28" s="20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E28" s="14">
         <f t="shared" ref="E28:W28" si="3">AVERAGE(E13,E8,E18,E23)</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="F28" s="20">
+        <v>7.2499999999999995E-3</v>
+      </c>
+      <c r="F28" s="14">
         <f t="shared" si="3"/>
-        <v>3.2500000000000003E-3</v>
-      </c>
-      <c r="G28" s="20">
+        <v>1.7250000000000001E-2</v>
+      </c>
+      <c r="G28" s="14">
         <f t="shared" si="3"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H28" s="20">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="H28" s="14">
         <f t="shared" si="3"/>
-        <v>5.2500000000000003E-3</v>
-      </c>
-      <c r="I28" s="20">
+        <v>3.8249999999999999E-2</v>
+      </c>
+      <c r="I28" s="14">
         <f t="shared" si="3"/>
-        <v>5.5000000000000005E-3</v>
-      </c>
-      <c r="J28" s="20">
+        <v>5.6750000000000002E-2</v>
+      </c>
+      <c r="J28" s="14">
         <f t="shared" si="3"/>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="K28" s="20">
+        <v>7.2500000000000009E-2</v>
+      </c>
+      <c r="K28" s="14">
         <f t="shared" si="3"/>
-        <v>7.2499999999999995E-3</v>
-      </c>
-      <c r="L28" s="20">
+        <v>8.7000000000000008E-2</v>
+      </c>
+      <c r="L28" s="14">
         <f t="shared" si="3"/>
-        <v>7.7499999999999999E-3</v>
-      </c>
-      <c r="M28" s="20">
+        <v>0.11174999999999999</v>
+      </c>
+      <c r="M28" s="14">
         <f t="shared" si="3"/>
-        <v>6.7499999999999999E-3</v>
-      </c>
-      <c r="N28" s="20">
+        <v>0.13925000000000001</v>
+      </c>
+      <c r="N28" s="14">
         <f t="shared" si="3"/>
-        <v>1.0249999999999999E-2</v>
-      </c>
-      <c r="O28" s="20">
+        <v>0.17149999999999999</v>
+      </c>
+      <c r="O28" s="14">
         <f t="shared" si="3"/>
-        <v>1.175E-2</v>
-      </c>
-      <c r="P28" s="20">
+        <v>0.20730000000000004</v>
+      </c>
+      <c r="P28" s="14">
         <f t="shared" si="3"/>
-        <v>1.125E-2</v>
-      </c>
-      <c r="Q28" s="20">
+        <v>0.23574999999999999</v>
+      </c>
+      <c r="Q28" s="14">
         <f t="shared" si="3"/>
-        <v>1.8250000000000002E-2</v>
-      </c>
-      <c r="R28" s="20">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="R28" s="14">
         <f t="shared" si="3"/>
-        <v>1.3000000000000001E-2</v>
-      </c>
-      <c r="S28" s="20">
+        <v>0.29774999999999996</v>
+      </c>
+      <c r="S28" s="14">
         <f t="shared" si="3"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="T28" s="20">
+        <v>0.33899999999999997</v>
+      </c>
+      <c r="T28" s="14">
         <f t="shared" si="3"/>
-        <v>1.325E-2</v>
-      </c>
-      <c r="U28" s="20">
+        <v>0.41149999999999998</v>
+      </c>
+      <c r="U28" s="14">
         <f t="shared" si="3"/>
-        <v>1.9E-2</v>
-      </c>
-      <c r="V28" s="20">
+        <v>0.44074999999999998</v>
+      </c>
+      <c r="V28" s="14">
         <f t="shared" si="3"/>
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="W28" s="20">
+        <v>0.49824999999999997</v>
+      </c>
+      <c r="W28" s="14">
         <f t="shared" si="3"/>
-        <v>2.0249999999999997E-2</v>
+        <v>0.5482499999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Párhuzamos Algoritmusok/Beadandó/Feladat 2/Diagram.xlsx
+++ b/Párhuzamos Algoritmusok/Beadandó/Feladat 2/Diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oravj\Desktop\ME_Git\Miskolci_Egyetem\Párhuzamos Algoritmusok\Beadandó\Feladat 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E988EEF4-0D52-4BB9-94A9-9546EE6DF82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AA8B07-0287-4992-94AF-22978E07DA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{827A7A81-2A63-4251-9506-2AFF6AE42B2E}"/>
+    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11505" xr2:uid="{827A7A81-2A63-4251-9506-2AFF6AE42B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -327,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -362,11 +362,48 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -400,7 +437,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="12000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -438,7 +475,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="12000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -508,64 +545,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="6" formatCode="General">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>125000</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="11">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>150000</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>175000</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="16" formatCode="General">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
                   <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>225000</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>250000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>275000</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>300000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>325000</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>350000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>375000</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>425000</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>450000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>475000</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -580,64 +617,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2500000000000003E-3</c:v>
+                  <c:v>1.2999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2500000000000003E-3</c:v>
+                  <c:v>5.475E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3749999999999998E-2</c:v>
+                  <c:v>0.11324999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2250000000000002E-2</c:v>
+                  <c:v>0.19324999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2250000000000001E-2</c:v>
+                  <c:v>0.29525000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0250000000000003E-2</c:v>
+                  <c:v>0.40675</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.54500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5999999999999998E-2</c:v>
+                  <c:v>0.72199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10625</c:v>
+                  <c:v>0.91774999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13800000000000001</c:v>
+                  <c:v>1.1587499999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16725000000000001</c:v>
+                  <c:v>1.3490000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1845</c:v>
+                  <c:v>1.6349999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.22799999999999998</c:v>
+                  <c:v>1.8775000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.26749999999999996</c:v>
+                  <c:v>2.2090000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.30175000000000002</c:v>
+                  <c:v>2.48875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33650000000000002</c:v>
+                  <c:v>2.8172499999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.37375000000000003</c:v>
+                  <c:v>3.1692499999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.436</c:v>
+                  <c:v>3.58575</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.46825</c:v>
+                  <c:v>4.0082500000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.55400000000000005</c:v>
+                  <c:v>4.3815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -691,64 +728,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="6" formatCode="General">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>125000</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="11">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>150000</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>175000</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="16" formatCode="General">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
                   <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>225000</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>250000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>275000</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>300000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>325000</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>350000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>375000</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>425000</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>450000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>475000</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -760,67 +797,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>7.5000000000000002E-4</c:v>
+                  <c:v>5.0000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>1.1250000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2500000000000003E-3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2999999999999999E-2</c:v>
+                  <c:v>5.9249999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5500000000000002E-2</c:v>
+                  <c:v>0.10225000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5500000000000004E-2</c:v>
+                  <c:v>0.156</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2250000000000005E-2</c:v>
+                  <c:v>0.21099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5999999999999998E-2</c:v>
+                  <c:v>0.28750000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3500000000000005E-2</c:v>
+                  <c:v>0.35975000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10925</c:v>
+                  <c:v>0.45550000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13075000000000001</c:v>
+                  <c:v>0.62250000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16675000000000001</c:v>
+                  <c:v>0.68049999999999988</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.19750000000000001</c:v>
+                  <c:v>0.80200000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.23299999999999998</c:v>
+                  <c:v>0.93625000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.27274999999999999</c:v>
+                  <c:v>1.0845</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.29724999999999996</c:v>
+                  <c:v>1.2142500000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.32924999999999999</c:v>
+                  <c:v>1.4415</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.40049999999999997</c:v>
+                  <c:v>1.6134999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.43224999999999997</c:v>
+                  <c:v>1.74275</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.49175000000000002</c:v>
+                  <c:v>1.9557499999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.54049999999999998</c:v>
+                  <c:v>2.1710000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -874,64 +911,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="6" formatCode="General">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>125000</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="11">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>150000</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>175000</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="16" formatCode="General">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
                   <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>225000</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>250000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>275000</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>300000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>325000</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>350000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>375000</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>425000</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>450000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>475000</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -943,67 +980,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>7.5000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4999999999999996E-3</c:v>
+                  <c:v>1.15E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5000000000000006E-3</c:v>
+                  <c:v>3.4499999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6500000000000001E-2</c:v>
+                  <c:v>3.9749999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5500000000000002E-2</c:v>
+                  <c:v>6.1749999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9750000000000001E-2</c:v>
+                  <c:v>9.375E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3999999999999999E-2</c:v>
+                  <c:v>0.11624999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2750000000000009E-2</c:v>
+                  <c:v>0.14774999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4250000000000005E-2</c:v>
+                  <c:v>0.19524999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11125</c:v>
+                  <c:v>0.25124999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13650000000000001</c:v>
+                  <c:v>0.34875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16800000000000001</c:v>
+                  <c:v>0.37724999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.20024999999999998</c:v>
+                  <c:v>0.40800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.23699999999999999</c:v>
+                  <c:v>0.46775</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.26900000000000002</c:v>
+                  <c:v>0.52700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.30924999999999997</c:v>
+                  <c:v>0.61024999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33374999999999999</c:v>
+                  <c:v>0.67149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.40375</c:v>
+                  <c:v>0.77374999999999994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.45524999999999999</c:v>
+                  <c:v>0.85124999999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.48225000000000001</c:v>
+                  <c:v>0.97249999999999992</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.53674999999999995</c:v>
+                  <c:v>1.04725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1057,64 +1094,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="6" formatCode="General">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>125000</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="11">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>150000</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>175000</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="16" formatCode="General">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
                   <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>225000</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>250000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>275000</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>300000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>325000</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>350000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>375000</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>425000</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>450000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>475000</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,67 +1163,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>1.25E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>1.2500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2499999999999995E-3</c:v>
+                  <c:v>2.1749999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7250000000000001E-2</c:v>
+                  <c:v>3.3750000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5499999999999998E-2</c:v>
+                  <c:v>4.8500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8249999999999999E-2</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6750000000000002E-2</c:v>
+                  <c:v>7.6999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2500000000000009E-2</c:v>
+                  <c:v>0.10075000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.7000000000000008E-2</c:v>
+                  <c:v>0.11749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11174999999999999</c:v>
+                  <c:v>0.14200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13925000000000001</c:v>
+                  <c:v>0.16449999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.17149999999999999</c:v>
+                  <c:v>0.19575000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.20730000000000004</c:v>
+                  <c:v>0.22749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.23574999999999999</c:v>
+                  <c:v>0.26875000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.26200000000000001</c:v>
+                  <c:v>0.29275000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.29774999999999996</c:v>
+                  <c:v>0.33925</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33899999999999997</c:v>
+                  <c:v>0.38900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.41149999999999998</c:v>
+                  <c:v>0.44475000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.44074999999999998</c:v>
+                  <c:v>0.46575</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.49824999999999997</c:v>
+                  <c:v>0.53474999999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5482499999999999</c:v>
+                  <c:v>0.59350000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1224,7 +1261,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="10000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="85000"/>
@@ -1255,7 +1292,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="10000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
                       <a:lumMod val="85000"/>
@@ -1292,7 +1329,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="10000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -1341,7 +1378,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="10000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="85000"/>
@@ -1372,7 +1409,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="10000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
                       <a:lumMod val="85000"/>
@@ -1403,7 +1440,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="10000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -1444,7 +1481,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="10000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -1501,7 +1538,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="10000"/>
+        <a:defRPr sz="1500"/>
       </a:pPr>
       <a:endParaRPr lang="hu-HU"/>
     </a:p>
@@ -2060,9 +2097,9 @@
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>313</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>417</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2388,10 +2425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D186E6E-61B8-48CF-A451-501FEA76048A}">
-  <dimension ref="B2:W28"/>
+  <dimension ref="B2:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="CJ425" sqref="CJ425"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2411,64 +2448,64 @@
         <v>0</v>
       </c>
       <c r="D3" s="15">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="E3" s="5">
+        <v>20000</v>
+      </c>
+      <c r="F3" s="15">
+        <v>30000</v>
+      </c>
+      <c r="G3" s="5">
+        <v>40000</v>
+      </c>
+      <c r="H3" s="15">
         <v>50000</v>
       </c>
-      <c r="F3" s="15">
-        <v>75000</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="I3" s="5">
+        <v>60000</v>
+      </c>
+      <c r="J3" s="15">
+        <v>70000</v>
+      </c>
+      <c r="K3" s="5">
+        <v>80000</v>
+      </c>
+      <c r="L3" s="15">
+        <v>90000</v>
+      </c>
+      <c r="M3" s="5">
         <v>100000</v>
       </c>
-      <c r="H3" s="15">
-        <v>125000</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="N3" s="15">
+        <v>110000</v>
+      </c>
+      <c r="O3" s="5">
+        <v>120000</v>
+      </c>
+      <c r="P3" s="15">
+        <v>130000</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>140000</v>
+      </c>
+      <c r="R3" s="15">
         <v>150000</v>
       </c>
-      <c r="J3" s="15">
-        <v>175000</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="S3" s="5">
+        <v>160000</v>
+      </c>
+      <c r="T3" s="15">
+        <v>170000</v>
+      </c>
+      <c r="U3" s="5">
+        <v>180000</v>
+      </c>
+      <c r="V3" s="15">
+        <v>190000</v>
+      </c>
+      <c r="W3" s="5">
         <v>200000</v>
-      </c>
-      <c r="L3" s="15">
-        <v>225000</v>
-      </c>
-      <c r="M3" s="5">
-        <v>250000</v>
-      </c>
-      <c r="N3" s="15">
-        <v>275000</v>
-      </c>
-      <c r="O3" s="5">
-        <v>300000</v>
-      </c>
-      <c r="P3" s="15">
-        <v>325000</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>350000</v>
-      </c>
-      <c r="R3" s="15">
-        <v>375000</v>
-      </c>
-      <c r="S3" s="5">
-        <v>400000</v>
-      </c>
-      <c r="T3" s="15">
-        <v>425000</v>
-      </c>
-      <c r="U3" s="5">
-        <v>450000</v>
-      </c>
-      <c r="V3" s="15">
-        <v>475000</v>
-      </c>
-      <c r="W3" s="5">
-        <v>500000</v>
       </c>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2503,64 +2540,64 @@
         <v>0</v>
       </c>
       <c r="D5" s="11">
-        <v>2E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E5" s="11">
-        <v>6.0000000000000001E-3</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F5" s="11">
-        <v>1.2999999999999999E-2</v>
+        <v>0.126</v>
       </c>
       <c r="G5" s="11">
-        <v>2.3E-2</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="H5" s="11">
-        <v>3.1E-2</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="I5" s="11">
-        <v>4.3999999999999997E-2</v>
+        <v>0.439</v>
       </c>
       <c r="J5" s="11">
-        <v>6.4000000000000001E-2</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K5" s="11">
-        <v>8.6999999999999994E-2</v>
+        <v>0.77</v>
       </c>
       <c r="L5" s="11">
-        <v>9.5000000000000001E-2</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="M5" s="11">
-        <v>0.13600000000000001</v>
+        <v>1.321</v>
       </c>
       <c r="N5" s="11">
-        <v>0.153</v>
+        <v>1.331</v>
       </c>
       <c r="O5" s="11">
-        <v>0.17399999999999999</v>
+        <v>1.7569999999999999</v>
       </c>
       <c r="P5" s="11">
-        <v>0.223</v>
+        <v>1.865</v>
       </c>
       <c r="Q5" s="11">
-        <v>0.25900000000000001</v>
+        <v>2.323</v>
       </c>
       <c r="R5" s="11">
-        <v>0.30299999999999999</v>
+        <v>2.4870000000000001</v>
       </c>
       <c r="S5" s="11">
-        <v>0.32800000000000001</v>
+        <v>2.7469999999999999</v>
       </c>
       <c r="T5" s="11">
-        <v>0.36599999999999999</v>
+        <v>3.2290000000000001</v>
       </c>
       <c r="U5" s="11">
-        <v>0.42</v>
+        <v>3.6030000000000002</v>
       </c>
       <c r="V5" s="11">
-        <v>0.46800000000000003</v>
+        <v>4.048</v>
       </c>
       <c r="W5" s="12">
-        <v>0.51500000000000001</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
@@ -2571,64 +2608,64 @@
         <v>1E-3</v>
       </c>
       <c r="D6" s="6">
-        <v>2E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E6" s="6">
-        <v>7.0000000000000001E-3</v>
+        <v>0.03</v>
       </c>
       <c r="F6" s="6">
-        <v>1.0999999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>2.5999999999999999E-2</v>
+        <v>0.105</v>
       </c>
       <c r="H6" s="6">
-        <v>3.5000000000000003E-2</v>
+        <v>0.183</v>
       </c>
       <c r="I6" s="6">
-        <v>0.05</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="J6" s="6">
-        <v>6.2E-2</v>
+        <v>0.3</v>
       </c>
       <c r="K6" s="6">
-        <v>9.0999999999999998E-2</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="L6" s="6">
-        <v>0.112</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="M6" s="6">
-        <v>0.13</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="N6" s="6">
-        <v>0.153</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="O6" s="6">
-        <v>0.188</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="P6" s="6">
-        <v>0.22</v>
+        <v>1.018</v>
       </c>
       <c r="Q6" s="6">
-        <v>0.26</v>
+        <v>1.1479999999999999</v>
       </c>
       <c r="R6" s="6">
-        <v>0.27400000000000002</v>
+        <v>1.2709999999999999</v>
       </c>
       <c r="S6" s="6">
-        <v>0.33600000000000002</v>
+        <v>1.472</v>
       </c>
       <c r="T6" s="6">
-        <v>0.37</v>
+        <v>1.712</v>
       </c>
       <c r="U6" s="6">
-        <v>0.39800000000000002</v>
+        <v>1.7529999999999999</v>
       </c>
       <c r="V6" s="6">
-        <v>0.47799999999999998</v>
+        <v>2.0289999999999999</v>
       </c>
       <c r="W6" s="8">
-        <v>0.499</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
@@ -2639,64 +2676,64 @@
         <v>1E-3</v>
       </c>
       <c r="D7" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E7" s="6">
-        <v>0.01</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F7" s="6">
-        <v>1.4E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="G7" s="6">
-        <v>2.5999999999999999E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="H7" s="6">
-        <v>3.6999999999999998E-2</v>
+        <v>0.125</v>
       </c>
       <c r="I7" s="6">
-        <v>4.8000000000000001E-2</v>
+        <v>0.128</v>
       </c>
       <c r="J7" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>0.156</v>
       </c>
       <c r="K7" s="6">
-        <v>8.8999999999999996E-2</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="L7" s="6">
-        <v>0.106</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="M7" s="6">
-        <v>0.128</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="N7" s="6">
-        <v>0.159</v>
+        <v>0.435</v>
       </c>
       <c r="O7" s="6">
-        <v>0.19</v>
+        <v>0.46</v>
       </c>
       <c r="P7" s="6">
-        <v>0.20599999999999999</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="Q7" s="6">
-        <v>0.27100000000000002</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="R7" s="6">
-        <v>0.27600000000000002</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="S7" s="6">
-        <v>0.31900000000000001</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="T7" s="6">
-        <v>0.4</v>
+        <v>0.82</v>
       </c>
       <c r="U7" s="6">
-        <v>0.41799999999999998</v>
+        <v>0.877</v>
       </c>
       <c r="V7" s="6">
-        <v>0.45500000000000002</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="W7" s="8">
-        <v>0.50700000000000001</v>
+        <v>1.0489999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2707,64 +2744,64 @@
         <v>2E-3</v>
       </c>
       <c r="D8" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E8" s="7">
-        <v>0</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="F8" s="7">
-        <v>1.6E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="G8" s="7">
-        <v>2.1999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H8" s="7">
-        <v>3.7999999999999999E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="I8" s="7">
-        <v>4.7E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="J8" s="7">
-        <v>7.1999999999999995E-2</v>
+        <v>0.111</v>
       </c>
       <c r="K8" s="7">
-        <v>9.5000000000000001E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="L8" s="7">
-        <v>0.114</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="M8" s="7">
-        <v>0.13600000000000001</v>
+        <v>0.159</v>
       </c>
       <c r="N8" s="7">
-        <v>0.16</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="O8" s="7">
-        <v>0.187</v>
+        <v>0.22</v>
       </c>
       <c r="P8" s="7">
-        <v>0.21199999999999999</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="Q8" s="7">
-        <v>0.27200000000000002</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="R8" s="7">
-        <v>0.29499999999999998</v>
+        <v>0.34</v>
       </c>
       <c r="S8" s="7">
-        <v>0.34399999999999997</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="T8" s="7">
-        <v>0.40699999999999997</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="U8" s="7">
-        <v>0.43</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="V8" s="7">
-        <v>0.49399999999999999</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="W8" s="9">
-        <v>0.53100000000000003</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2799,64 +2836,64 @@
         <v>0</v>
       </c>
       <c r="D10" s="11">
-        <v>3.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E10" s="11">
-        <v>5.0000000000000001E-3</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F10" s="11">
-        <v>1.6E-2</v>
+        <v>0.109</v>
       </c>
       <c r="G10" s="11">
-        <v>2.1999999999999999E-2</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="H10" s="11">
-        <v>3.6999999999999998E-2</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="I10" s="11">
-        <v>5.5E-2</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="J10" s="11">
-        <v>6.6000000000000003E-2</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="K10" s="11">
-        <v>7.6999999999999999E-2</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="L10" s="11">
-        <v>0.11600000000000001</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="M10" s="11">
-        <v>0.16700000000000001</v>
+        <v>1.0640000000000001</v>
       </c>
       <c r="N10" s="11">
-        <v>0.16200000000000001</v>
+        <v>1.329</v>
       </c>
       <c r="O10" s="11">
-        <v>0.18</v>
+        <v>1.645</v>
       </c>
       <c r="P10" s="11">
-        <v>0.248</v>
+        <v>1.901</v>
       </c>
       <c r="Q10" s="11">
-        <v>0.28999999999999998</v>
+        <v>2.137</v>
       </c>
       <c r="R10" s="11">
-        <v>0.30599999999999999</v>
+        <v>2.4969999999999999</v>
       </c>
       <c r="S10" s="11">
-        <v>0.38300000000000001</v>
+        <v>2.79</v>
       </c>
       <c r="T10" s="11">
-        <v>0.38200000000000001</v>
+        <v>3.032</v>
       </c>
       <c r="U10" s="11">
-        <v>0.48299999999999998</v>
+        <v>3.4780000000000002</v>
       </c>
       <c r="V10" s="11">
-        <v>0.49399999999999999</v>
+        <v>3.7679999999999998</v>
       </c>
       <c r="W10" s="12">
-        <v>0.60399999999999998</v>
+        <v>4.173</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
@@ -2864,67 +2901,67 @@
         <v>1</v>
       </c>
       <c r="C11" s="6">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E11" s="6">
-        <v>7.0000000000000001E-3</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F11" s="6">
-        <v>1.4E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="G11" s="6">
-        <v>2.5000000000000001E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="H11" s="6">
-        <v>4.1000000000000002E-2</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="I11" s="6">
-        <v>5.1999999999999998E-2</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="J11" s="6">
-        <v>8.5999999999999993E-2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K11" s="6">
-        <v>8.7999999999999995E-2</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="L11" s="6">
-        <v>0.112</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="M11" s="6">
-        <v>0.13200000000000001</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="N11" s="6">
-        <v>0.17899999999999999</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="O11" s="6">
-        <v>0.20499999999999999</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="P11" s="6">
-        <v>0.25900000000000001</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="Q11" s="6">
-        <v>0.27700000000000002</v>
+        <v>1.052</v>
       </c>
       <c r="R11" s="6">
-        <v>0.32900000000000001</v>
+        <v>1.1950000000000001</v>
       </c>
       <c r="S11" s="6">
-        <v>0.32800000000000001</v>
+        <v>1.53</v>
       </c>
       <c r="T11" s="6">
-        <v>0.43099999999999999</v>
+        <v>1.538</v>
       </c>
       <c r="U11" s="6">
-        <v>0.46700000000000003</v>
+        <v>1.6919999999999999</v>
       </c>
       <c r="V11" s="6">
-        <v>0.49399999999999999</v>
+        <v>1.9239999999999999</v>
       </c>
       <c r="W11" s="8">
-        <v>0.58099999999999996</v>
+        <v>2.1150000000000002</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
@@ -2935,64 +2972,64 @@
         <v>1E-3</v>
       </c>
       <c r="D12" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E12" s="6">
-        <v>8.9999999999999993E-3</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F12" s="6">
-        <v>0.02</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="G12" s="6">
-        <v>2.3E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H12" s="6">
-        <v>4.4999999999999998E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="I12" s="6">
-        <v>0.06</v>
+        <v>0.113</v>
       </c>
       <c r="J12" s="6">
-        <v>7.1999999999999995E-2</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="K12" s="6">
-        <v>8.3000000000000004E-2</v>
+        <v>0.188</v>
       </c>
       <c r="L12" s="6">
-        <v>0.106</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="M12" s="6">
-        <v>0.158</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="N12" s="6">
-        <v>0.16200000000000001</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="O12" s="6">
-        <v>0.215</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="P12" s="6">
-        <v>0.27700000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="Q12" s="6">
-        <v>0.28100000000000003</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="R12" s="6">
-        <v>0.34300000000000003</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="S12" s="6">
-        <v>0.36299999999999999</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="T12" s="6">
-        <v>0.42699999999999999</v>
+        <v>0.749</v>
       </c>
       <c r="U12" s="6">
-        <v>0.503</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="V12" s="6">
-        <v>0.50700000000000001</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="W12" s="8">
-        <v>0.56299999999999994</v>
+        <v>1.0529999999999999</v>
       </c>
     </row>
     <row r="13" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3000,67 +3037,67 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>0.02</v>
+        <v>1E-3</v>
       </c>
       <c r="D13" s="7">
-        <v>6.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E13" s="7">
-        <v>1.2999999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F13" s="7">
-        <v>0.02</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="G13" s="7">
-        <v>3.1E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="H13" s="7">
-        <v>4.2000000000000003E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="I13" s="7">
-        <v>5.2999999999999999E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="J13" s="7">
-        <v>6.4000000000000001E-2</v>
+        <v>0.105</v>
       </c>
       <c r="K13" s="7">
-        <v>9.7000000000000003E-2</v>
+        <v>0.123</v>
       </c>
       <c r="L13" s="7">
-        <v>0.111</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="M13" s="7">
-        <v>0.14699999999999999</v>
+        <v>0.157</v>
       </c>
       <c r="N13" s="7">
-        <v>0.16500000000000001</v>
+        <v>0.191</v>
       </c>
       <c r="O13" s="7">
-        <v>0.217</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="P13" s="7">
-        <v>0.25800000000000001</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="Q13" s="7">
-        <v>0.28000000000000003</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="R13" s="7">
-        <v>0.32100000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="S13" s="7">
-        <v>0.35299999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="T13" s="7">
-        <v>0.41</v>
+        <v>0.435</v>
       </c>
       <c r="U13" s="7">
-        <v>0.47499999999999998</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="V13" s="7">
-        <v>0.47399999999999998</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="W13" s="9">
-        <v>0.58299999999999996</v>
+        <v>0.59899999999999998</v>
       </c>
     </row>
     <row r="14" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3095,64 +3132,64 @@
         <v>0</v>
       </c>
       <c r="D15" s="11">
-        <v>2E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E15" s="11">
-        <v>5.0000000000000001E-3</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="F15" s="11">
-        <v>1.2E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="G15" s="11">
-        <v>2.3E-2</v>
+        <v>0.182</v>
       </c>
       <c r="H15" s="11">
-        <v>3.2000000000000001E-2</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="I15" s="11">
-        <v>5.1999999999999998E-2</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="J15" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.52</v>
       </c>
       <c r="K15" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="L15" s="11">
-        <v>0.105</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="M15" s="11">
-        <v>0.128</v>
+        <v>1.0640000000000001</v>
       </c>
       <c r="N15" s="11">
-        <v>0.184</v>
+        <v>1.272</v>
       </c>
       <c r="O15" s="11">
-        <v>0.19700000000000001</v>
+        <v>1.48</v>
       </c>
       <c r="P15" s="11">
-        <v>0.22600000000000001</v>
+        <v>1.8069999999999999</v>
       </c>
       <c r="Q15" s="11">
-        <v>0.247</v>
+        <v>2.085</v>
       </c>
       <c r="R15" s="11">
-        <v>0.30399999999999999</v>
+        <v>2.4140000000000001</v>
       </c>
       <c r="S15" s="11">
-        <v>0.29299999999999998</v>
+        <v>2.698</v>
       </c>
       <c r="T15" s="11">
-        <v>0.39300000000000002</v>
+        <v>3.0720000000000001</v>
       </c>
       <c r="U15" s="11">
-        <v>0.42699999999999999</v>
+        <v>3.44</v>
       </c>
       <c r="V15" s="11">
-        <v>0.47699999999999998</v>
+        <v>3.8260000000000001</v>
       </c>
       <c r="W15" s="12">
-        <v>0.53200000000000003</v>
+        <v>4.181</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
@@ -3160,67 +3197,67 @@
         <v>1</v>
       </c>
       <c r="C16" s="6">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="D16" s="6">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E16" s="6">
-        <v>6.0000000000000001E-3</v>
+        <v>0.03</v>
       </c>
       <c r="F16" s="6">
-        <v>1.2999999999999999E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="G16" s="6">
-        <v>2.7E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H16" s="6">
-        <v>3.5000000000000003E-2</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="I16" s="6">
-        <v>0.05</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="J16" s="6">
-        <v>0.08</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="K16" s="6">
-        <v>0.08</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="L16" s="6">
-        <v>0.105</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="M16" s="6">
-        <v>0.14099999999999999</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="N16" s="6">
-        <v>0.18</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="O16" s="6">
-        <v>0.20300000000000001</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="P16" s="6">
-        <v>0.248</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="Q16" s="6">
-        <v>0.252</v>
+        <v>1.0629999999999999</v>
       </c>
       <c r="R16" s="6">
-        <v>0.29099999999999998</v>
+        <v>1.171</v>
       </c>
       <c r="S16" s="6">
-        <v>0.32400000000000001</v>
+        <v>1.369</v>
       </c>
       <c r="T16" s="6">
-        <v>0.435</v>
+        <v>1.524</v>
       </c>
       <c r="U16" s="6">
-        <v>0.45</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="V16" s="6">
-        <v>0.51200000000000001</v>
+        <v>1.8460000000000001</v>
       </c>
       <c r="W16" s="8">
-        <v>0.56299999999999994</v>
+        <v>2.0190000000000001</v>
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
@@ -3231,64 +3268,64 @@
         <v>1E-3</v>
       </c>
       <c r="D17" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E17" s="6">
-        <v>7.0000000000000001E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F17" s="6">
-        <v>1.6E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G17" s="6">
-        <v>2.8000000000000001E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="H17" s="6">
-        <v>4.1000000000000002E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I17" s="6">
-        <v>4.9000000000000002E-2</v>
+        <v>0.11</v>
       </c>
       <c r="J17" s="6">
-        <v>8.4000000000000005E-2</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="K17" s="6">
-        <v>8.4000000000000005E-2</v>
+        <v>0.184</v>
       </c>
       <c r="L17" s="6">
-        <v>0.11700000000000001</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="M17" s="6">
-        <v>0.14399999999999999</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="N17" s="6">
-        <v>0.191</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="O17" s="6">
-        <v>0.19800000000000001</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="P17" s="6">
-        <v>0.246</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="Q17" s="6">
-        <v>0.27100000000000002</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="R17" s="6">
-        <v>0.31900000000000001</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="S17" s="6">
-        <v>0.33800000000000002</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="T17" s="6">
-        <v>0.42699999999999999</v>
+        <v>0.755</v>
       </c>
       <c r="U17" s="6">
-        <v>0.47599999999999998</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="V17" s="6">
-        <v>0.51300000000000001</v>
+        <v>0.879</v>
       </c>
       <c r="W17" s="8">
-        <v>0.52200000000000002</v>
+        <v>1.0369999999999999</v>
       </c>
     </row>
     <row r="18" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3299,64 +3336,64 @@
         <v>1E-3</v>
       </c>
       <c r="D18" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E18" s="7">
-        <v>8.9999999999999993E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F18" s="7">
-        <v>1.6E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="G18" s="7">
-        <v>0.03</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H18" s="7">
-        <v>4.2000000000000003E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="I18" s="7">
-        <v>5.8000000000000003E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="J18" s="7">
-        <v>7.8E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="K18" s="7">
-        <v>7.8E-2</v>
+        <v>0.111</v>
       </c>
       <c r="L18" s="7">
-        <v>0.13</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="M18" s="7">
-        <v>0.151</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="N18" s="7">
-        <v>0.17199999999999999</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="O18" s="7">
-        <v>0.22220000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="P18" s="7">
-        <v>0.24</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="Q18" s="7">
-        <v>0.26200000000000001</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="R18" s="7">
-        <v>0.29799999999999999</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="S18" s="7">
-        <v>0.33600000000000002</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="T18" s="7">
-        <v>0.41399999999999998</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="U18" s="7">
-        <v>0.44400000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="V18" s="7">
-        <v>0.52400000000000002</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="W18" s="9">
-        <v>0.502</v>
+        <v>0.59799999999999998</v>
       </c>
     </row>
     <row r="19" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3391,64 +3428,64 @@
         <v>0</v>
       </c>
       <c r="D20" s="11">
-        <v>2E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E20" s="11">
-        <v>5.0000000000000001E-3</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="F20" s="11">
-        <v>1.4E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="G20" s="11">
-        <v>2.1000000000000001E-2</v>
+        <v>0.19</v>
       </c>
       <c r="H20" s="11">
-        <v>2.9000000000000001E-2</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="I20" s="11">
-        <v>0.05</v>
+        <v>0.433</v>
       </c>
       <c r="J20" s="11">
-        <v>0.08</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="K20" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="L20" s="11">
-        <v>0.109</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="M20" s="11">
-        <v>0.121</v>
+        <v>1.1859999999999999</v>
       </c>
       <c r="N20" s="11">
-        <v>0.17</v>
+        <v>1.464</v>
       </c>
       <c r="O20" s="11">
-        <v>0.187</v>
+        <v>1.6579999999999999</v>
       </c>
       <c r="P20" s="11">
-        <v>0.215</v>
+        <v>1.9370000000000001</v>
       </c>
       <c r="Q20" s="11">
-        <v>0.27400000000000002</v>
+        <v>2.2909999999999999</v>
       </c>
       <c r="R20" s="11">
-        <v>0.29399999999999998</v>
+        <v>2.5569999999999999</v>
       </c>
       <c r="S20" s="11">
-        <v>0.34200000000000003</v>
+        <v>3.0339999999999998</v>
       </c>
       <c r="T20" s="11">
-        <v>0.35399999999999998</v>
+        <v>3.3439999999999999</v>
       </c>
       <c r="U20" s="11">
-        <v>0.41399999999999998</v>
+        <v>3.8220000000000001</v>
       </c>
       <c r="V20" s="11">
-        <v>0.434</v>
+        <v>4.391</v>
       </c>
       <c r="W20" s="12">
-        <v>0.56499999999999995</v>
+        <v>4.7519999999999998</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
@@ -3456,67 +3493,67 @@
         <v>1</v>
       </c>
       <c r="C21" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D21" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E21" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>3.1E-2</v>
       </c>
       <c r="F21" s="6">
-        <v>1.4E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G21" s="6">
-        <v>2.4E-2</v>
+        <v>0.115</v>
       </c>
       <c r="H21" s="6">
-        <v>3.1E-2</v>
+        <v>0.157</v>
       </c>
       <c r="I21" s="6">
-        <v>5.7000000000000002E-2</v>
+        <v>0.217</v>
       </c>
       <c r="J21" s="6">
-        <v>7.5999999999999998E-2</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="K21" s="6">
-        <v>7.4999999999999997E-2</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="L21" s="6">
-        <v>0.108</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="M21" s="6">
-        <v>0.12</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="N21" s="6">
-        <v>0.155</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="O21" s="6">
-        <v>0.19400000000000001</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="P21" s="6">
-        <v>0.20499999999999999</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="Q21" s="6">
-        <v>0.30199999999999999</v>
+        <v>1.075</v>
       </c>
       <c r="R21" s="6">
-        <v>0.29499999999999998</v>
+        <v>1.22</v>
       </c>
       <c r="S21" s="6">
-        <v>0.32900000000000001</v>
+        <v>1.395</v>
       </c>
       <c r="T21" s="6">
-        <v>0.36599999999999999</v>
+        <v>1.68</v>
       </c>
       <c r="U21" s="6">
-        <v>0.41399999999999998</v>
+        <v>1.8939999999999999</v>
       </c>
       <c r="V21" s="6">
-        <v>0.48299999999999998</v>
+        <v>2.024</v>
       </c>
       <c r="W21" s="8">
-        <v>0.51900000000000002</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
@@ -3524,67 +3561,67 @@
         <v>2</v>
       </c>
       <c r="C22" s="6">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="D22" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E22" s="6">
-        <v>8.0000000000000002E-3</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F22" s="6">
-        <v>1.6E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="G22" s="6">
-        <v>2.5000000000000001E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="H22" s="6">
-        <v>3.5999999999999997E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="I22" s="6">
-        <v>5.8999999999999997E-2</v>
+        <v>0.114</v>
       </c>
       <c r="J22" s="6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="K22" s="6">
-        <v>8.1000000000000003E-2</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="L22" s="6">
-        <v>0.11600000000000001</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="M22" s="6">
-        <v>0.11600000000000001</v>
+        <v>0.318</v>
       </c>
       <c r="N22" s="6">
-        <v>0.16</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="O22" s="6">
-        <v>0.19800000000000001</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="P22" s="6">
-        <v>0.219</v>
+        <v>0.443</v>
       </c>
       <c r="Q22" s="6">
-        <v>0.253</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="R22" s="6">
-        <v>0.29899999999999999</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="S22" s="6">
-        <v>0.315</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="T22" s="6">
-        <v>0.36099999999999999</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="U22" s="6">
-        <v>0.42399999999999999</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="V22" s="6">
-        <v>0.45400000000000001</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="W22" s="8">
-        <v>0.55500000000000005</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="23" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3595,64 +3632,64 @@
         <v>1E-3</v>
       </c>
       <c r="D23" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E23" s="7">
-        <v>7.0000000000000001E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F23" s="7">
-        <v>1.7000000000000001E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="G23" s="7">
-        <v>1.9E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="H23" s="7">
-        <v>3.1E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="I23" s="7">
-        <v>6.9000000000000006E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="J23" s="7">
-        <v>7.5999999999999998E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="K23" s="7">
-        <v>7.8E-2</v>
+        <v>0.12</v>
       </c>
       <c r="L23" s="7">
-        <v>9.1999999999999998E-2</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="M23" s="7">
-        <v>0.123</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="N23" s="7">
-        <v>0.189</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="O23" s="7">
-        <v>0.20300000000000001</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="P23" s="7">
-        <v>0.23300000000000001</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="Q23" s="7">
-        <v>0.23400000000000001</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="R23" s="7">
-        <v>0.27700000000000002</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="S23" s="7">
-        <v>0.32300000000000001</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="T23" s="7">
-        <v>0.41499999999999998</v>
+        <v>0.433</v>
       </c>
       <c r="U23" s="7">
-        <v>0.41399999999999998</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="V23" s="7">
-        <v>0.501</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="W23" s="9">
-        <v>0.57699999999999996</v>
+        <v>0.57199999999999995</v>
       </c>
     </row>
     <row r="24" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3667,83 +3704,83 @@
       </c>
       <c r="D25" s="14">
         <f>AVERAGE(D10,D5,D15,D20)</f>
-        <v>2.2500000000000003E-3</v>
+        <v>1.2999999999999998E-2</v>
       </c>
       <c r="E25" s="14">
         <f t="shared" ref="E25:W27" si="0">AVERAGE(E10,E5,E15,E20)</f>
-        <v>5.2500000000000003E-3</v>
+        <v>5.475E-2</v>
       </c>
       <c r="F25" s="14">
         <f t="shared" si="0"/>
-        <v>1.3749999999999998E-2</v>
+        <v>0.11324999999999999</v>
       </c>
       <c r="G25" s="14">
         <f t="shared" si="0"/>
-        <v>2.2250000000000002E-2</v>
+        <v>0.19324999999999998</v>
       </c>
       <c r="H25" s="14">
         <f t="shared" si="0"/>
-        <v>3.2250000000000001E-2</v>
+        <v>0.29525000000000001</v>
       </c>
       <c r="I25" s="14">
         <f t="shared" si="0"/>
-        <v>5.0250000000000003E-2</v>
+        <v>0.40675</v>
       </c>
       <c r="J25" s="14">
         <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="K25" s="14">
         <f t="shared" si="0"/>
-        <v>7.5999999999999998E-2</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="L25" s="14">
         <f t="shared" si="0"/>
-        <v>0.10625</v>
+        <v>0.91774999999999995</v>
       </c>
       <c r="M25" s="14">
         <f t="shared" si="0"/>
-        <v>0.13800000000000001</v>
+        <v>1.1587499999999999</v>
       </c>
       <c r="N25" s="14">
         <f t="shared" si="0"/>
-        <v>0.16725000000000001</v>
+        <v>1.3490000000000002</v>
       </c>
       <c r="O25" s="14">
         <f t="shared" si="0"/>
-        <v>0.1845</v>
+        <v>1.6349999999999998</v>
       </c>
       <c r="P25" s="14">
         <f t="shared" si="0"/>
-        <v>0.22799999999999998</v>
+        <v>1.8775000000000002</v>
       </c>
       <c r="Q25" s="14">
         <f t="shared" si="0"/>
-        <v>0.26749999999999996</v>
+        <v>2.2090000000000001</v>
       </c>
       <c r="R25" s="14">
         <f t="shared" si="0"/>
-        <v>0.30175000000000002</v>
+        <v>2.48875</v>
       </c>
       <c r="S25" s="14">
         <f t="shared" si="0"/>
-        <v>0.33650000000000002</v>
+        <v>2.8172499999999996</v>
       </c>
       <c r="T25" s="14">
         <f t="shared" si="0"/>
-        <v>0.37375000000000003</v>
+        <v>3.1692499999999999</v>
       </c>
       <c r="U25" s="14">
         <f t="shared" si="0"/>
-        <v>0.436</v>
+        <v>3.58575</v>
       </c>
       <c r="V25" s="14">
         <f t="shared" si="0"/>
-        <v>0.46825</v>
+        <v>4.0082500000000003</v>
       </c>
       <c r="W25" s="14">
         <f t="shared" si="0"/>
-        <v>0.55400000000000005</v>
+        <v>4.3815</v>
       </c>
     </row>
     <row r="26" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3753,87 +3790,87 @@
       </c>
       <c r="C26" s="14">
         <f>AVERAGE(C11,C6,C16,C21)</f>
-        <v>7.5000000000000002E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D26" s="14">
         <f t="shared" ref="D26:S27" si="2">AVERAGE(D11,D6,D16,D21)</f>
-        <v>2.5000000000000001E-3</v>
+        <v>1.1250000000000001E-2</v>
       </c>
       <c r="E26" s="14">
         <f t="shared" si="2"/>
-        <v>6.2500000000000003E-3</v>
+        <v>0.03</v>
       </c>
       <c r="F26" s="14">
         <f t="shared" si="2"/>
-        <v>1.2999999999999999E-2</v>
+        <v>5.9249999999999997E-2</v>
       </c>
       <c r="G26" s="14">
         <f t="shared" si="2"/>
-        <v>2.5500000000000002E-2</v>
+        <v>0.10225000000000001</v>
       </c>
       <c r="H26" s="14">
         <f t="shared" si="2"/>
-        <v>3.5500000000000004E-2</v>
+        <v>0.156</v>
       </c>
       <c r="I26" s="14">
         <f t="shared" si="2"/>
-        <v>5.2250000000000005E-2</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="J26" s="14">
         <f t="shared" si="2"/>
-        <v>7.5999999999999998E-2</v>
+        <v>0.28750000000000003</v>
       </c>
       <c r="K26" s="14">
         <f t="shared" si="2"/>
-        <v>8.3500000000000005E-2</v>
+        <v>0.35975000000000001</v>
       </c>
       <c r="L26" s="14">
         <f t="shared" si="2"/>
-        <v>0.10925</v>
+        <v>0.45550000000000002</v>
       </c>
       <c r="M26" s="14">
         <f t="shared" si="2"/>
-        <v>0.13075000000000001</v>
+        <v>0.62250000000000005</v>
       </c>
       <c r="N26" s="14">
         <f t="shared" si="2"/>
-        <v>0.16675000000000001</v>
+        <v>0.68049999999999988</v>
       </c>
       <c r="O26" s="14">
         <f t="shared" si="2"/>
-        <v>0.19750000000000001</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="P26" s="14">
         <f t="shared" si="2"/>
-        <v>0.23299999999999998</v>
+        <v>0.93625000000000003</v>
       </c>
       <c r="Q26" s="14">
         <f t="shared" si="2"/>
-        <v>0.27274999999999999</v>
+        <v>1.0845</v>
       </c>
       <c r="R26" s="14">
         <f t="shared" si="2"/>
-        <v>0.29724999999999996</v>
+        <v>1.2142500000000001</v>
       </c>
       <c r="S26" s="14">
         <f t="shared" si="2"/>
-        <v>0.32924999999999999</v>
+        <v>1.4415</v>
       </c>
       <c r="T26" s="14">
         <f t="shared" si="0"/>
-        <v>0.40049999999999997</v>
+        <v>1.6134999999999999</v>
       </c>
       <c r="U26" s="14">
         <f t="shared" si="0"/>
-        <v>0.43224999999999997</v>
+        <v>1.74275</v>
       </c>
       <c r="V26" s="14">
         <f t="shared" si="0"/>
-        <v>0.49175000000000002</v>
+        <v>1.9557499999999999</v>
       </c>
       <c r="W26" s="14">
         <f t="shared" si="0"/>
-        <v>0.54049999999999998</v>
+        <v>2.1710000000000003</v>
       </c>
     </row>
     <row r="27" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3843,87 +3880,87 @@
       </c>
       <c r="C27" s="14">
         <f>AVERAGE(C12,C7,C17,C22)</f>
-        <v>1E-3</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="D27" s="14">
         <f t="shared" si="2"/>
-        <v>3.4999999999999996E-3</v>
+        <v>1.15E-2</v>
       </c>
       <c r="E27" s="14">
         <f t="shared" si="0"/>
-        <v>8.5000000000000006E-3</v>
+        <v>3.4499999999999996E-2</v>
       </c>
       <c r="F27" s="14">
         <f t="shared" si="0"/>
-        <v>1.6500000000000001E-2</v>
+        <v>3.9749999999999994E-2</v>
       </c>
       <c r="G27" s="14">
         <f t="shared" si="0"/>
-        <v>2.5500000000000002E-2</v>
+        <v>6.1749999999999999E-2</v>
       </c>
       <c r="H27" s="14">
         <f t="shared" si="0"/>
-        <v>3.9750000000000001E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="I27" s="14">
         <f t="shared" si="0"/>
-        <v>5.3999999999999999E-2</v>
+        <v>0.11624999999999999</v>
       </c>
       <c r="J27" s="14">
         <f t="shared" si="0"/>
-        <v>7.2750000000000009E-2</v>
+        <v>0.14774999999999999</v>
       </c>
       <c r="K27" s="14">
         <f t="shared" si="0"/>
-        <v>8.4250000000000005E-2</v>
+        <v>0.19524999999999998</v>
       </c>
       <c r="L27" s="14">
         <f t="shared" si="0"/>
-        <v>0.11125</v>
+        <v>0.25124999999999997</v>
       </c>
       <c r="M27" s="14">
         <f t="shared" si="0"/>
-        <v>0.13650000000000001</v>
+        <v>0.34875</v>
       </c>
       <c r="N27" s="14">
         <f t="shared" si="0"/>
-        <v>0.16800000000000001</v>
+        <v>0.37724999999999997</v>
       </c>
       <c r="O27" s="14">
         <f t="shared" si="0"/>
-        <v>0.20024999999999998</v>
+        <v>0.40800000000000003</v>
       </c>
       <c r="P27" s="14">
         <f t="shared" si="0"/>
-        <v>0.23699999999999999</v>
+        <v>0.46775</v>
       </c>
       <c r="Q27" s="14">
         <f t="shared" si="0"/>
-        <v>0.26900000000000002</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="R27" s="14">
         <f t="shared" si="0"/>
-        <v>0.30924999999999997</v>
+        <v>0.61024999999999996</v>
       </c>
       <c r="S27" s="14">
         <f t="shared" si="0"/>
-        <v>0.33374999999999999</v>
+        <v>0.67149999999999999</v>
       </c>
       <c r="T27" s="14">
         <f t="shared" si="0"/>
-        <v>0.40375</v>
+        <v>0.77374999999999994</v>
       </c>
       <c r="U27" s="14">
         <f t="shared" si="0"/>
-        <v>0.45524999999999999</v>
+        <v>0.85124999999999995</v>
       </c>
       <c r="V27" s="14">
         <f t="shared" si="0"/>
-        <v>0.48225000000000001</v>
+        <v>0.97249999999999992</v>
       </c>
       <c r="W27" s="14">
         <f t="shared" si="0"/>
-        <v>0.53674999999999995</v>
+        <v>1.04725</v>
       </c>
     </row>
     <row r="28" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3933,88 +3970,91 @@
       </c>
       <c r="C28" s="14">
         <f>AVERAGE(C13,C8,C18,C23)</f>
-        <v>6.0000000000000001E-3</v>
+        <v>1.25E-3</v>
       </c>
       <c r="D28" s="14">
         <f>AVERAGE(D13,D8,D18,D23)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E28" s="14">
         <f t="shared" ref="E28:W28" si="3">AVERAGE(E13,E8,E18,E23)</f>
-        <v>7.2499999999999995E-3</v>
+        <v>2.1749999999999999E-2</v>
       </c>
       <c r="F28" s="14">
         <f t="shared" si="3"/>
-        <v>1.7250000000000001E-2</v>
+        <v>3.3750000000000002E-2</v>
       </c>
       <c r="G28" s="14">
         <f t="shared" si="3"/>
-        <v>2.5499999999999998E-2</v>
+        <v>4.8500000000000001E-2</v>
       </c>
       <c r="H28" s="14">
         <f t="shared" si="3"/>
-        <v>3.8249999999999999E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I28" s="14">
         <f t="shared" si="3"/>
-        <v>5.6750000000000002E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="J28" s="14">
         <f t="shared" si="3"/>
-        <v>7.2500000000000009E-2</v>
+        <v>0.10075000000000001</v>
       </c>
       <c r="K28" s="14">
         <f t="shared" si="3"/>
-        <v>8.7000000000000008E-2</v>
+        <v>0.11749999999999999</v>
       </c>
       <c r="L28" s="14">
         <f t="shared" si="3"/>
-        <v>0.11174999999999999</v>
+        <v>0.14200000000000002</v>
       </c>
       <c r="M28" s="14">
         <f t="shared" si="3"/>
-        <v>0.13925000000000001</v>
+        <v>0.16449999999999998</v>
       </c>
       <c r="N28" s="14">
         <f t="shared" si="3"/>
-        <v>0.17149999999999999</v>
+        <v>0.19575000000000004</v>
       </c>
       <c r="O28" s="14">
         <f t="shared" si="3"/>
-        <v>0.20730000000000004</v>
+        <v>0.22749999999999998</v>
       </c>
       <c r="P28" s="14">
         <f t="shared" si="3"/>
-        <v>0.23574999999999999</v>
+        <v>0.26875000000000004</v>
       </c>
       <c r="Q28" s="14">
         <f t="shared" si="3"/>
-        <v>0.26200000000000001</v>
+        <v>0.29275000000000001</v>
       </c>
       <c r="R28" s="14">
         <f t="shared" si="3"/>
-        <v>0.29774999999999996</v>
+        <v>0.33925</v>
       </c>
       <c r="S28" s="14">
         <f t="shared" si="3"/>
-        <v>0.33899999999999997</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="T28" s="14">
         <f t="shared" si="3"/>
-        <v>0.41149999999999998</v>
+        <v>0.44475000000000003</v>
       </c>
       <c r="U28" s="14">
         <f t="shared" si="3"/>
-        <v>0.44074999999999998</v>
+        <v>0.46575</v>
       </c>
       <c r="V28" s="14">
         <f t="shared" si="3"/>
-        <v>0.49824999999999997</v>
+        <v>0.53474999999999995</v>
       </c>
       <c r="W28" s="14">
         <f t="shared" si="3"/>
-        <v>0.5482499999999999</v>
-      </c>
+        <v>0.59350000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G29" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Párhuzamos Algoritmusok/Beadandó/Feladat 2/Diagram.xlsx
+++ b/Párhuzamos Algoritmusok/Beadandó/Feladat 2/Diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oravj\Desktop\ME_Git\Miskolci_Egyetem\Párhuzamos Algoritmusok\Beadandó\Feladat 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AA8B07-0287-4992-94AF-22978E07DA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A9D882-2B97-4481-8EF5-189951E37E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11505" xr2:uid="{827A7A81-2A63-4251-9506-2AFF6AE42B2E}"/>
   </bookViews>
@@ -2427,7 +2427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D186E6E-61B8-48CF-A451-501FEA76048A}">
   <dimension ref="B2:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C19" sqref="C19:W19"/>
     </sheetView>
   </sheetViews>

--- a/Párhuzamos Algoritmusok/Beadandó/Feladat 2/Diagram.xlsx
+++ b/Párhuzamos Algoritmusok/Beadandó/Feladat 2/Diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oravj\Desktop\ME_Git\Miskolci_Egyetem\Párhuzamos Algoritmusok\Beadandó\Feladat 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A9D882-2B97-4481-8EF5-189951E37E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022B7E4D-1C4D-4ECF-ADEA-9F04F748BBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11505" xr2:uid="{827A7A81-2A63-4251-9506-2AFF6AE42B2E}"/>
+    <workbookView xWindow="-12015" yWindow="3960" windowWidth="21600" windowHeight="11505" xr2:uid="{827A7A81-2A63-4251-9506-2AFF6AE42B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
   <si>
     <t>Thread - 1</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Array Size</t>
+  </si>
+  <si>
+    <t>[sec]</t>
   </si>
 </sst>
 </file>
@@ -75,7 +78,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,8 +91,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -323,11 +332,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -341,9 +423,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -362,48 +443,26 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -547,31 +606,31 @@
                 <c:pt idx="1">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="2">
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>30000</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="4">
                   <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="6">
                   <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>70000</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="8">
                   <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>90000</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -583,25 +642,25 @@
                 <c:pt idx="13">
                   <c:v>130000</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>150000</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="16">
                   <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>170000</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>190000</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
@@ -730,31 +789,31 @@
                 <c:pt idx="1">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="2">
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>30000</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="4">
                   <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="6">
                   <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>70000</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="8">
                   <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>90000</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -766,25 +825,25 @@
                 <c:pt idx="13">
                   <c:v>130000</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>150000</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="16">
                   <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>170000</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>190000</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
@@ -913,31 +972,31 @@
                 <c:pt idx="1">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="2">
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>30000</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="4">
                   <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="6">
                   <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>70000</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="8">
                   <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>90000</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -949,25 +1008,25 @@
                 <c:pt idx="13">
                   <c:v>130000</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>150000</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="16">
                   <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>170000</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>190000</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1096,31 +1155,31 @@
                 <c:pt idx="1">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="2">
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>30000</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="4">
                   <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="6">
                   <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>70000</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="8">
                   <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>90000</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -1132,25 +1191,25 @@
                 <c:pt idx="13">
                   <c:v>130000</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>150000</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="16">
                   <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>170000</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>190000</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1391,7 +1450,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="hu-HU"/>
-                  <a:t>Time</a:t>
+                  <a:t>Time [ms]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2425,118 +2484,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D186E6E-61B8-48CF-A451-501FEA76048A}">
-  <dimension ref="B2:W29"/>
+  <dimension ref="A2:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:W19"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="21">
         <v>0</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>10000</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="30">
         <v>20000</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="13">
         <v>30000</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="30">
         <v>40000</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="13">
         <v>50000</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="30">
         <v>60000</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="13">
         <v>70000</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="30">
         <v>80000</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="13">
         <v>90000</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="30">
         <v>100000</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="13">
         <v>110000</v>
       </c>
       <c r="O3" s="5">
         <v>120000</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="13">
         <v>130000</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="30">
         <v>140000</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="13">
         <v>150000</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="30">
         <v>160000</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="13">
         <v>170000</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="30">
         <v>180000</v>
       </c>
-      <c r="V3" s="15">
+      <c r="V3" s="13">
         <v>190000</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="27">
         <v>200000</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="18"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="17"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>5</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="22">
         <v>0</v>
       </c>
       <c r="D5" s="11">
@@ -2600,11 +2663,12 @@
         <v>4.42</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="23">
         <v>1E-3</v>
       </c>
       <c r="D6" s="6">
@@ -2668,11 +2732,12 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="23">
         <v>1E-3</v>
       </c>
       <c r="D7" s="6">
@@ -2736,11 +2801,12 @@
         <v>1.0489999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="24">
         <v>2E-3</v>
       </c>
       <c r="D8" s="7">
@@ -2804,35 +2870,39 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="21"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="20"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>5</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="22">
         <v>0</v>
       </c>
       <c r="D10" s="11">
@@ -2896,11 +2966,12 @@
         <v>4.173</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="23">
         <v>0</v>
       </c>
       <c r="D11" s="6">
@@ -2964,11 +3035,12 @@
         <v>2.1150000000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="23">
         <v>1E-3</v>
       </c>
       <c r="D12" s="6">
@@ -3032,11 +3104,12 @@
         <v>1.0529999999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
       <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="24">
         <v>1E-3</v>
       </c>
       <c r="D13" s="7">
@@ -3100,35 +3173,39 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="21"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="20"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>5</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="22">
         <v>0</v>
       </c>
       <c r="D15" s="11">
@@ -3192,11 +3269,12 @@
         <v>4.181</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="23">
         <v>0</v>
       </c>
       <c r="D16" s="6">
@@ -3260,11 +3338,12 @@
         <v>2.0190000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="23">
         <v>1E-3</v>
       </c>
       <c r="D17" s="6">
@@ -3328,11 +3407,12 @@
         <v>1.0369999999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
       <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="24">
         <v>1E-3</v>
       </c>
       <c r="D18" s="7">
@@ -3396,35 +3476,39 @@
         <v>0.59799999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="21"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="20"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>5</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="22">
         <v>0</v>
       </c>
       <c r="D20" s="11">
@@ -3488,11 +3572,12 @@
         <v>4.7519999999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="23">
         <v>1E-3</v>
       </c>
       <c r="D21" s="6">
@@ -3556,11 +3641,12 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="23">
         <v>0</v>
       </c>
       <c r="D22" s="6">
@@ -3624,11 +3710,12 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="23" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
       <c r="B23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="24">
         <v>1E-3</v>
       </c>
       <c r="D23" s="7">
@@ -3692,376 +3779,389 @@
         <v>0.57199999999999995</v>
       </c>
     </row>
-    <row r="24" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="13" t="str">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="28" t="str">
         <f>B20</f>
         <v>Thread - 1</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="29">
         <f>AVERAGE(C10,C5,C15,C20)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="29">
         <f>AVERAGE(D10,D5,D15,D20)</f>
         <v>1.2999999999999998E-2</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="29">
         <f t="shared" ref="E25:W27" si="0">AVERAGE(E10,E5,E15,E20)</f>
         <v>5.475E-2</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="29">
         <f t="shared" si="0"/>
         <v>0.11324999999999999</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="29">
         <f t="shared" si="0"/>
         <v>0.19324999999999998</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="29">
         <f t="shared" si="0"/>
         <v>0.29525000000000001</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="29">
         <f t="shared" si="0"/>
         <v>0.40675</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="29">
         <f t="shared" si="0"/>
         <v>0.54500000000000004</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="29">
         <f t="shared" si="0"/>
         <v>0.72199999999999998</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="29">
         <f t="shared" si="0"/>
         <v>0.91774999999999995</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="29">
         <f t="shared" si="0"/>
         <v>1.1587499999999999</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="29">
         <f t="shared" si="0"/>
         <v>1.3490000000000002</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O25" s="29">
         <f t="shared" si="0"/>
         <v>1.6349999999999998</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="29">
         <f t="shared" si="0"/>
         <v>1.8775000000000002</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25" s="29">
         <f t="shared" si="0"/>
         <v>2.2090000000000001</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25" s="29">
         <f t="shared" si="0"/>
         <v>2.48875</v>
       </c>
-      <c r="S25" s="14">
+      <c r="S25" s="29">
         <f t="shared" si="0"/>
         <v>2.8172499999999996</v>
       </c>
-      <c r="T25" s="14">
+      <c r="T25" s="29">
         <f t="shared" si="0"/>
         <v>3.1692499999999999</v>
       </c>
-      <c r="U25" s="14">
+      <c r="U25" s="29">
         <f t="shared" si="0"/>
         <v>3.58575</v>
       </c>
-      <c r="V25" s="14">
+      <c r="V25" s="29">
         <f t="shared" si="0"/>
         <v>4.0082500000000003</v>
       </c>
-      <c r="W25" s="14">
+      <c r="W25" s="31">
         <f t="shared" si="0"/>
         <v>4.3815</v>
       </c>
     </row>
-    <row r="26" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="13" t="str">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26"/>
+      <c r="B26" s="28" t="str">
         <f t="shared" ref="B26:B28" si="1">B21</f>
         <v>Thread - 2</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="29">
         <f>AVERAGE(C11,C6,C16,C21)</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="29">
         <f t="shared" ref="D26:S27" si="2">AVERAGE(D11,D6,D16,D21)</f>
         <v>1.1250000000000001E-2</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="29">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="29">
         <f t="shared" si="2"/>
         <v>5.9249999999999997E-2</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="29">
         <f t="shared" si="2"/>
         <v>0.10225000000000001</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="29">
         <f t="shared" si="2"/>
         <v>0.156</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="29">
         <f t="shared" si="2"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="29">
         <f t="shared" si="2"/>
         <v>0.28750000000000003</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="29">
         <f t="shared" si="2"/>
         <v>0.35975000000000001</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="29">
         <f t="shared" si="2"/>
         <v>0.45550000000000002</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26" s="29">
         <f t="shared" si="2"/>
         <v>0.62250000000000005</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="29">
         <f t="shared" si="2"/>
         <v>0.68049999999999988</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O26" s="29">
         <f t="shared" si="2"/>
         <v>0.80200000000000005</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P26" s="29">
         <f t="shared" si="2"/>
         <v>0.93625000000000003</v>
       </c>
-      <c r="Q26" s="14">
+      <c r="Q26" s="29">
         <f t="shared" si="2"/>
         <v>1.0845</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R26" s="29">
         <f t="shared" si="2"/>
         <v>1.2142500000000001</v>
       </c>
-      <c r="S26" s="14">
+      <c r="S26" s="29">
         <f t="shared" si="2"/>
         <v>1.4415</v>
       </c>
-      <c r="T26" s="14">
+      <c r="T26" s="29">
         <f t="shared" si="0"/>
         <v>1.6134999999999999</v>
       </c>
-      <c r="U26" s="14">
+      <c r="U26" s="29">
         <f t="shared" si="0"/>
         <v>1.74275</v>
       </c>
-      <c r="V26" s="14">
+      <c r="V26" s="29">
         <f t="shared" si="0"/>
         <v>1.9557499999999999</v>
       </c>
-      <c r="W26" s="14">
+      <c r="W26" s="31">
         <f t="shared" si="0"/>
         <v>2.1710000000000003</v>
       </c>
     </row>
-    <row r="27" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="13" t="str">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26"/>
+      <c r="B27" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Thread - 4</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="29">
         <f>AVERAGE(C12,C7,C17,C22)</f>
         <v>7.5000000000000002E-4</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="29">
         <f t="shared" si="2"/>
         <v>1.15E-2</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="29">
         <f t="shared" si="0"/>
         <v>3.4499999999999996E-2</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="29">
         <f t="shared" si="0"/>
         <v>3.9749999999999994E-2</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="29">
         <f t="shared" si="0"/>
         <v>6.1749999999999999E-2</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="29">
         <f t="shared" si="0"/>
         <v>9.375E-2</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="29">
         <f t="shared" si="0"/>
         <v>0.11624999999999999</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="29">
         <f t="shared" si="0"/>
         <v>0.14774999999999999</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="29">
         <f t="shared" si="0"/>
         <v>0.19524999999999998</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="29">
         <f t="shared" si="0"/>
         <v>0.25124999999999997</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M27" s="29">
         <f t="shared" si="0"/>
         <v>0.34875</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N27" s="29">
         <f t="shared" si="0"/>
         <v>0.37724999999999997</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O27" s="29">
         <f t="shared" si="0"/>
         <v>0.40800000000000003</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P27" s="29">
         <f t="shared" si="0"/>
         <v>0.46775</v>
       </c>
-      <c r="Q27" s="14">
+      <c r="Q27" s="29">
         <f t="shared" si="0"/>
         <v>0.52700000000000002</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R27" s="29">
         <f t="shared" si="0"/>
         <v>0.61024999999999996</v>
       </c>
-      <c r="S27" s="14">
+      <c r="S27" s="29">
         <f t="shared" si="0"/>
         <v>0.67149999999999999</v>
       </c>
-      <c r="T27" s="14">
+      <c r="T27" s="29">
         <f t="shared" si="0"/>
         <v>0.77374999999999994</v>
       </c>
-      <c r="U27" s="14">
+      <c r="U27" s="29">
         <f t="shared" si="0"/>
         <v>0.85124999999999995</v>
       </c>
-      <c r="V27" s="14">
+      <c r="V27" s="29">
         <f t="shared" si="0"/>
         <v>0.97249999999999992</v>
       </c>
-      <c r="W27" s="14">
+      <c r="W27" s="31">
         <f t="shared" si="0"/>
         <v>1.04725</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="13" t="str">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+      <c r="B28" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Thread - 8</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="29">
         <f>AVERAGE(C13,C8,C18,C23)</f>
         <v>1.25E-3</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="29">
         <f>AVERAGE(D13,D8,D18,D23)</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="29">
         <f t="shared" ref="E28:W28" si="3">AVERAGE(E13,E8,E18,E23)</f>
         <v>2.1749999999999999E-2</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="29">
         <f t="shared" si="3"/>
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="29">
         <f t="shared" si="3"/>
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="29">
         <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="29">
         <f t="shared" si="3"/>
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="29">
         <f t="shared" si="3"/>
         <v>0.10075000000000001</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="29">
         <f t="shared" si="3"/>
         <v>0.11749999999999999</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="29">
         <f t="shared" si="3"/>
         <v>0.14200000000000002</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M28" s="29">
         <f t="shared" si="3"/>
         <v>0.16449999999999998</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N28" s="29">
         <f t="shared" si="3"/>
         <v>0.19575000000000004</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O28" s="29">
         <f t="shared" si="3"/>
         <v>0.22749999999999998</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="29">
         <f t="shared" si="3"/>
         <v>0.26875000000000004</v>
       </c>
-      <c r="Q28" s="14">
+      <c r="Q28" s="29">
         <f t="shared" si="3"/>
         <v>0.29275000000000001</v>
       </c>
-      <c r="R28" s="14">
+      <c r="R28" s="29">
         <f t="shared" si="3"/>
         <v>0.33925</v>
       </c>
-      <c r="S28" s="14">
+      <c r="S28" s="29">
         <f t="shared" si="3"/>
         <v>0.38900000000000001</v>
       </c>
-      <c r="T28" s="14">
+      <c r="T28" s="29">
         <f t="shared" si="3"/>
         <v>0.44475000000000003</v>
       </c>
-      <c r="U28" s="14">
+      <c r="U28" s="29">
         <f t="shared" si="3"/>
         <v>0.46575</v>
       </c>
-      <c r="V28" s="14">
+      <c r="V28" s="29">
         <f t="shared" si="3"/>
         <v>0.53474999999999995</v>
       </c>
-      <c r="W28" s="14">
+      <c r="W28" s="31">
         <f t="shared" si="3"/>
         <v>0.59350000000000003</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="G29" s="22"/>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G29" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A25:A28"/>
     <mergeCell ref="C4:W4"/>
     <mergeCell ref="C9:W9"/>
     <mergeCell ref="C14:W14"/>
     <mergeCell ref="C19:W19"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Párhuzamos Algoritmusok/Beadandó/Feladat 2/Diagram.xlsx
+++ b/Párhuzamos Algoritmusok/Beadandó/Feladat 2/Diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oravj\Desktop\ME_Git\Miskolci_Egyetem\Párhuzamos Algoritmusok\Beadandó\Feladat 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022B7E4D-1C4D-4ECF-ADEA-9F04F748BBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C4E5D1-676D-4F96-9281-D47B13AAE176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12015" yWindow="3960" windowWidth="21600" windowHeight="11505" xr2:uid="{827A7A81-2A63-4251-9506-2AFF6AE42B2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{827A7A81-2A63-4251-9506-2AFF6AE42B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -425,6 +425,21 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -443,21 +458,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -2156,10 +2156,10 @@
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2486,7 +2486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D186E6E-61B8-48CF-A451-501FEA76048A}">
   <dimension ref="A2:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -2504,37 +2504,37 @@
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="15">
         <v>0</v>
       </c>
       <c r="D3" s="13">
         <v>10000</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="23">
         <v>20000</v>
       </c>
       <c r="F3" s="13">
         <v>30000</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="23">
         <v>40000</v>
       </c>
       <c r="H3" s="13">
         <v>50000</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="23">
         <v>60000</v>
       </c>
       <c r="J3" s="13">
         <v>70000</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="23">
         <v>80000</v>
       </c>
       <c r="L3" s="13">
         <v>90000</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="23">
         <v>100000</v>
       </c>
       <c r="N3" s="13">
@@ -2546,60 +2546,60 @@
       <c r="P3" s="13">
         <v>130000</v>
       </c>
-      <c r="Q3" s="30">
+      <c r="Q3" s="23">
         <v>140000</v>
       </c>
       <c r="R3" s="13">
         <v>150000</v>
       </c>
-      <c r="S3" s="30">
+      <c r="S3" s="23">
         <v>160000</v>
       </c>
       <c r="T3" s="13">
         <v>170000</v>
       </c>
-      <c r="U3" s="30">
+      <c r="U3" s="23">
         <v>180000</v>
       </c>
       <c r="V3" s="13">
         <v>190000</v>
       </c>
-      <c r="W3" s="27">
+      <c r="W3" s="20">
         <v>200000</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="17"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="28"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="16">
         <v>0</v>
       </c>
       <c r="D5" s="11">
@@ -2664,11 +2664,11 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="17">
         <v>1E-3</v>
       </c>
       <c r="D6" s="6">
@@ -2733,11 +2733,11 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="17">
         <v>1E-3</v>
       </c>
       <c r="D7" s="6">
@@ -2802,11 +2802,11 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="18">
         <v>2E-3</v>
       </c>
       <c r="D8" s="7">
@@ -2871,38 +2871,38 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="20"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="31"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="16">
         <v>0</v>
       </c>
       <c r="D10" s="11">
@@ -2967,11 +2967,11 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="17">
         <v>0</v>
       </c>
       <c r="D11" s="6">
@@ -3036,11 +3036,11 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="17">
         <v>1E-3</v>
       </c>
       <c r="D12" s="6">
@@ -3105,11 +3105,11 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="18">
         <v>1E-3</v>
       </c>
       <c r="D13" s="7">
@@ -3174,38 +3174,38 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="20"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="31"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="16">
         <v>0</v>
       </c>
       <c r="D15" s="11">
@@ -3270,11 +3270,11 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="17">
         <v>0</v>
       </c>
       <c r="D16" s="6">
@@ -3339,11 +3339,11 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="17">
         <v>1E-3</v>
       </c>
       <c r="D17" s="6">
@@ -3408,11 +3408,11 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="18">
         <v>1E-3</v>
       </c>
       <c r="D18" s="7">
@@ -3477,38 +3477,38 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="20"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="31"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="16">
         <v>0</v>
       </c>
       <c r="D20" s="11">
@@ -3573,11 +3573,11 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="17">
         <v>1E-3</v>
       </c>
       <c r="D21" s="6">
@@ -3642,11 +3642,11 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="17">
         <v>0</v>
       </c>
       <c r="D22" s="6">
@@ -3711,11 +3711,11 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="18">
         <v>1E-3</v>
       </c>
       <c r="D23" s="7">
@@ -3780,370 +3780,370 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
+      <c r="A24" s="19"/>
     </row>
     <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="28" t="str">
+      <c r="B25" s="21" t="str">
         <f>B20</f>
         <v>Thread - 1</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="22">
         <f>AVERAGE(C10,C5,C15,C20)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="22">
         <f>AVERAGE(D10,D5,D15,D20)</f>
         <v>1.2999999999999998E-2</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="22">
         <f t="shared" ref="E25:W27" si="0">AVERAGE(E10,E5,E15,E20)</f>
         <v>5.475E-2</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="22">
         <f t="shared" si="0"/>
         <v>0.11324999999999999</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="22">
         <f t="shared" si="0"/>
         <v>0.19324999999999998</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="22">
         <f t="shared" si="0"/>
         <v>0.29525000000000001</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="22">
         <f t="shared" si="0"/>
         <v>0.40675</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="22">
         <f t="shared" si="0"/>
         <v>0.54500000000000004</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="22">
         <f t="shared" si="0"/>
         <v>0.72199999999999998</v>
       </c>
-      <c r="L25" s="29">
+      <c r="L25" s="22">
         <f t="shared" si="0"/>
         <v>0.91774999999999995</v>
       </c>
-      <c r="M25" s="29">
+      <c r="M25" s="22">
         <f t="shared" si="0"/>
         <v>1.1587499999999999</v>
       </c>
-      <c r="N25" s="29">
+      <c r="N25" s="22">
         <f t="shared" si="0"/>
         <v>1.3490000000000002</v>
       </c>
-      <c r="O25" s="29">
+      <c r="O25" s="22">
         <f t="shared" si="0"/>
         <v>1.6349999999999998</v>
       </c>
-      <c r="P25" s="29">
+      <c r="P25" s="22">
         <f t="shared" si="0"/>
         <v>1.8775000000000002</v>
       </c>
-      <c r="Q25" s="29">
+      <c r="Q25" s="22">
         <f t="shared" si="0"/>
         <v>2.2090000000000001</v>
       </c>
-      <c r="R25" s="29">
+      <c r="R25" s="22">
         <f t="shared" si="0"/>
         <v>2.48875</v>
       </c>
-      <c r="S25" s="29">
+      <c r="S25" s="22">
         <f t="shared" si="0"/>
         <v>2.8172499999999996</v>
       </c>
-      <c r="T25" s="29">
+      <c r="T25" s="22">
         <f t="shared" si="0"/>
         <v>3.1692499999999999</v>
       </c>
-      <c r="U25" s="29">
+      <c r="U25" s="22">
         <f t="shared" si="0"/>
         <v>3.58575</v>
       </c>
-      <c r="V25" s="29">
+      <c r="V25" s="22">
         <f t="shared" si="0"/>
         <v>4.0082500000000003</v>
       </c>
-      <c r="W25" s="31">
+      <c r="W25" s="24">
         <f t="shared" si="0"/>
         <v>4.3815</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="28" t="str">
+      <c r="A26" s="25"/>
+      <c r="B26" s="21" t="str">
         <f t="shared" ref="B26:B28" si="1">B21</f>
         <v>Thread - 2</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="22">
         <f>AVERAGE(C11,C6,C16,C21)</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="22">
         <f t="shared" ref="D26:S27" si="2">AVERAGE(D11,D6,D16,D21)</f>
         <v>1.1250000000000001E-2</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="22">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="22">
         <f t="shared" si="2"/>
         <v>5.9249999999999997E-2</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="22">
         <f t="shared" si="2"/>
         <v>0.10225000000000001</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="22">
         <f t="shared" si="2"/>
         <v>0.156</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="22">
         <f t="shared" si="2"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="22">
         <f t="shared" si="2"/>
         <v>0.28750000000000003</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="22">
         <f t="shared" si="2"/>
         <v>0.35975000000000001</v>
       </c>
-      <c r="L26" s="29">
+      <c r="L26" s="22">
         <f t="shared" si="2"/>
         <v>0.45550000000000002</v>
       </c>
-      <c r="M26" s="29">
+      <c r="M26" s="22">
         <f t="shared" si="2"/>
         <v>0.62250000000000005</v>
       </c>
-      <c r="N26" s="29">
+      <c r="N26" s="22">
         <f t="shared" si="2"/>
         <v>0.68049999999999988</v>
       </c>
-      <c r="O26" s="29">
+      <c r="O26" s="22">
         <f t="shared" si="2"/>
         <v>0.80200000000000005</v>
       </c>
-      <c r="P26" s="29">
+      <c r="P26" s="22">
         <f t="shared" si="2"/>
         <v>0.93625000000000003</v>
       </c>
-      <c r="Q26" s="29">
+      <c r="Q26" s="22">
         <f t="shared" si="2"/>
         <v>1.0845</v>
       </c>
-      <c r="R26" s="29">
+      <c r="R26" s="22">
         <f t="shared" si="2"/>
         <v>1.2142500000000001</v>
       </c>
-      <c r="S26" s="29">
+      <c r="S26" s="22">
         <f t="shared" si="2"/>
         <v>1.4415</v>
       </c>
-      <c r="T26" s="29">
+      <c r="T26" s="22">
         <f t="shared" si="0"/>
         <v>1.6134999999999999</v>
       </c>
-      <c r="U26" s="29">
+      <c r="U26" s="22">
         <f t="shared" si="0"/>
         <v>1.74275</v>
       </c>
-      <c r="V26" s="29">
+      <c r="V26" s="22">
         <f t="shared" si="0"/>
         <v>1.9557499999999999</v>
       </c>
-      <c r="W26" s="31">
+      <c r="W26" s="24">
         <f t="shared" si="0"/>
         <v>2.1710000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="28" t="str">
+      <c r="A27" s="25"/>
+      <c r="B27" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Thread - 4</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="22">
         <f>AVERAGE(C12,C7,C17,C22)</f>
         <v>7.5000000000000002E-4</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="22">
         <f t="shared" si="2"/>
         <v>1.15E-2</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="22">
         <f t="shared" si="0"/>
         <v>3.4499999999999996E-2</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="22">
         <f t="shared" si="0"/>
         <v>3.9749999999999994E-2</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="22">
         <f t="shared" si="0"/>
         <v>6.1749999999999999E-2</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="22">
         <f t="shared" si="0"/>
         <v>9.375E-2</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="22">
         <f t="shared" si="0"/>
         <v>0.11624999999999999</v>
       </c>
-      <c r="J27" s="29">
+      <c r="J27" s="22">
         <f t="shared" si="0"/>
         <v>0.14774999999999999</v>
       </c>
-      <c r="K27" s="29">
+      <c r="K27" s="22">
         <f t="shared" si="0"/>
         <v>0.19524999999999998</v>
       </c>
-      <c r="L27" s="29">
+      <c r="L27" s="22">
         <f t="shared" si="0"/>
         <v>0.25124999999999997</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="22">
         <f t="shared" si="0"/>
         <v>0.34875</v>
       </c>
-      <c r="N27" s="29">
+      <c r="N27" s="22">
         <f t="shared" si="0"/>
         <v>0.37724999999999997</v>
       </c>
-      <c r="O27" s="29">
+      <c r="O27" s="22">
         <f t="shared" si="0"/>
         <v>0.40800000000000003</v>
       </c>
-      <c r="P27" s="29">
+      <c r="P27" s="22">
         <f t="shared" si="0"/>
         <v>0.46775</v>
       </c>
-      <c r="Q27" s="29">
+      <c r="Q27" s="22">
         <f t="shared" si="0"/>
         <v>0.52700000000000002</v>
       </c>
-      <c r="R27" s="29">
+      <c r="R27" s="22">
         <f t="shared" si="0"/>
         <v>0.61024999999999996</v>
       </c>
-      <c r="S27" s="29">
+      <c r="S27" s="22">
         <f t="shared" si="0"/>
         <v>0.67149999999999999</v>
       </c>
-      <c r="T27" s="29">
+      <c r="T27" s="22">
         <f t="shared" si="0"/>
         <v>0.77374999999999994</v>
       </c>
-      <c r="U27" s="29">
+      <c r="U27" s="22">
         <f t="shared" si="0"/>
         <v>0.85124999999999995</v>
       </c>
-      <c r="V27" s="29">
+      <c r="V27" s="22">
         <f t="shared" si="0"/>
         <v>0.97249999999999992</v>
       </c>
-      <c r="W27" s="31">
+      <c r="W27" s="24">
         <f t="shared" si="0"/>
         <v>1.04725</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="28" t="str">
+      <c r="A28" s="25"/>
+      <c r="B28" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Thread - 8</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="22">
         <f>AVERAGE(C13,C8,C18,C23)</f>
         <v>1.25E-3</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="22">
         <f>AVERAGE(D13,D8,D18,D23)</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="22">
         <f t="shared" ref="E28:W28" si="3">AVERAGE(E13,E8,E18,E23)</f>
         <v>2.1749999999999999E-2</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="22">
         <f t="shared" si="3"/>
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="22">
         <f t="shared" si="3"/>
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="22">
         <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="22">
         <f t="shared" si="3"/>
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="J28" s="29">
+      <c r="J28" s="22">
         <f t="shared" si="3"/>
         <v>0.10075000000000001</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K28" s="22">
         <f t="shared" si="3"/>
         <v>0.11749999999999999</v>
       </c>
-      <c r="L28" s="29">
+      <c r="L28" s="22">
         <f t="shared" si="3"/>
         <v>0.14200000000000002</v>
       </c>
-      <c r="M28" s="29">
+      <c r="M28" s="22">
         <f t="shared" si="3"/>
         <v>0.16449999999999998</v>
       </c>
-      <c r="N28" s="29">
+      <c r="N28" s="22">
         <f t="shared" si="3"/>
         <v>0.19575000000000004</v>
       </c>
-      <c r="O28" s="29">
+      <c r="O28" s="22">
         <f t="shared" si="3"/>
         <v>0.22749999999999998</v>
       </c>
-      <c r="P28" s="29">
+      <c r="P28" s="22">
         <f t="shared" si="3"/>
         <v>0.26875000000000004</v>
       </c>
-      <c r="Q28" s="29">
+      <c r="Q28" s="22">
         <f t="shared" si="3"/>
         <v>0.29275000000000001</v>
       </c>
-      <c r="R28" s="29">
+      <c r="R28" s="22">
         <f t="shared" si="3"/>
         <v>0.33925</v>
       </c>
-      <c r="S28" s="29">
+      <c r="S28" s="22">
         <f t="shared" si="3"/>
         <v>0.38900000000000001</v>
       </c>
-      <c r="T28" s="29">
+      <c r="T28" s="22">
         <f t="shared" si="3"/>
         <v>0.44475000000000003</v>
       </c>
-      <c r="U28" s="29">
+      <c r="U28" s="22">
         <f t="shared" si="3"/>
         <v>0.46575</v>
       </c>
-      <c r="V28" s="29">
+      <c r="V28" s="22">
         <f t="shared" si="3"/>
         <v>0.53474999999999995</v>
       </c>
-      <c r="W28" s="31">
+      <c r="W28" s="24">
         <f t="shared" si="3"/>
         <v>0.59350000000000003</v>
       </c>
